--- a/_national.xlsx
+++ b/_national.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/sudanS3M/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221C6182-40D2-A546-AFEA-0795BA8B068C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5874EE12-49FE-F246-9EC7-B7DC679B5CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="248">
   <si>
     <t>Indicator</t>
   </si>
@@ -629,9 +629,6 @@
   </si>
   <si>
     <t>EPI : First dose measles vaccine for children below 12 months</t>
-  </si>
-  <si>
-    <t>EPI : Second dose measles vaccine for children below 12 months</t>
   </si>
   <si>
     <t>EPI : Full EPI coverage for children below 12 months (without rotavirus vaccine)</t>
@@ -810,9 +807,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,34 +1106,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E244"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1148,13 +1144,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>3.44</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>3.1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>3.79</v>
       </c>
     </row>
@@ -1165,13 +1161,13 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>3.77</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>3.29</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>4.26</v>
       </c>
     </row>
@@ -1182,13 +1178,13 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>16.2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>8.93</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>23.48</v>
       </c>
     </row>
@@ -1199,13 +1195,13 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>51.24</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>42.27</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>60.21</v>
       </c>
     </row>
@@ -1216,13 +1212,13 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>2.4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>2.02</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>2.79</v>
       </c>
     </row>
@@ -1233,13 +1229,13 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>71.459999999999994</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>63.21</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>79.709999999999994</v>
       </c>
     </row>
@@ -1250,13 +1246,13 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>44.98</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>36.35</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>53.62</v>
       </c>
     </row>
@@ -1267,13 +1263,13 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>22.39</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>15.14</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>29.65</v>
       </c>
     </row>
@@ -1284,13 +1280,13 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>13.04</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>7.24</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>18.84</v>
       </c>
     </row>
@@ -1301,13 +1297,13 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>34.200000000000003</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>25.06</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>43.34</v>
       </c>
     </row>
@@ -1318,13 +1314,13 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>67.34</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>58.54</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>76.150000000000006</v>
       </c>
     </row>
@@ -1335,13 +1331,13 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>42.23</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>32.36</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>52.09</v>
       </c>
     </row>
@@ -1352,13 +1348,13 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>53.74</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>43.38</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>64.09</v>
       </c>
     </row>
@@ -1369,13 +1365,13 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>46.75</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>35.81</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>57.68</v>
       </c>
     </row>
@@ -1386,13 +1382,13 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>7.87</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>2.87</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>12.88</v>
       </c>
     </row>
@@ -1403,13 +1399,13 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>1.24</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>0.01</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>2.99</v>
       </c>
     </row>
@@ -1420,13 +1416,13 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>5.39</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>1.81</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>8.9600000000000009</v>
       </c>
     </row>
@@ -1437,13 +1433,13 @@
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>1.32</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>0.01</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>3.16</v>
       </c>
     </row>
@@ -1454,13 +1450,13 @@
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>1.37</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0.01</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>3.09</v>
       </c>
     </row>
@@ -1471,13 +1467,13 @@
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>8.7200000000000006</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>3.56</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>13.88</v>
       </c>
     </row>
@@ -1488,13 +1484,13 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>6.58</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>1.89</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>11.27</v>
       </c>
     </row>
@@ -1505,13 +1501,13 @@
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>1.59</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>0.01</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>3.37</v>
       </c>
     </row>
@@ -1522,13 +1518,13 @@
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>2.0499999999999998</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>0.01</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>4.71</v>
       </c>
     </row>
@@ -1539,13 +1535,13 @@
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>0.83</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>0.01</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25">
         <v>2.4900000000000002</v>
       </c>
     </row>
@@ -1556,13 +1552,13 @@
       <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>7.6</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>2.2799999999999998</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26">
         <v>12.92</v>
       </c>
     </row>
@@ -1573,13 +1569,13 @@
       <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>7.21</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>1.56</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27">
         <v>12.86</v>
       </c>
     </row>
@@ -1590,13 +1586,13 @@
       <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>2.46</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>0.01</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28">
         <v>5.13</v>
       </c>
     </row>
@@ -1607,13 +1603,13 @@
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>34.65</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>24.49</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>44.81</v>
       </c>
     </row>
@@ -1624,13 +1620,13 @@
       <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>2.64</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>0.01</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>5.74</v>
       </c>
     </row>
@@ -1641,13 +1637,13 @@
       <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>21.2</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>13</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31">
         <v>29.39</v>
       </c>
     </row>
@@ -1658,13 +1654,13 @@
       <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>19.73</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>11.4</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32">
         <v>28.06</v>
       </c>
     </row>
@@ -1675,13 +1671,13 @@
       <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>18.670000000000002</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>11.01</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33">
         <v>26.33</v>
       </c>
     </row>
@@ -1692,13 +1688,13 @@
       <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>9.07</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>3.55</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>14.58</v>
       </c>
     </row>
@@ -1709,13 +1705,13 @@
       <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>13.07</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>7.32</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35">
         <v>18.82</v>
       </c>
     </row>
@@ -1726,13 +1722,13 @@
       <c r="B36" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>6.52</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36">
         <v>10.6</v>
       </c>
     </row>
@@ -1743,13 +1739,13 @@
       <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>0.97</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>0.01</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37">
         <v>2.74</v>
       </c>
     </row>
@@ -1760,13 +1756,13 @@
       <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>16.850000000000001</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38">
         <v>9.94</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38">
         <v>23.75</v>
       </c>
     </row>
@@ -1777,13 +1773,13 @@
       <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>10.050000000000001</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39">
         <v>4.7300000000000004</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>15.38</v>
       </c>
     </row>
@@ -1794,13 +1790,13 @@
       <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>17.28</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40">
         <v>10.23</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>24.34</v>
       </c>
     </row>
@@ -1811,13 +1807,13 @@
       <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>7.3</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41">
         <v>2.85</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41">
         <v>11.75</v>
       </c>
     </row>
@@ -1828,13 +1824,13 @@
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>271.64999999999998</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42">
         <v>264.12</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42">
         <v>279.19</v>
       </c>
     </row>
@@ -1845,13 +1841,13 @@
       <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>8.6300000000000008</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43">
         <v>3.66</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>13.6</v>
       </c>
     </row>
@@ -1862,13 +1858,13 @@
       <c r="B44" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>6.36</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44">
         <v>1.03</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44">
         <v>11.69</v>
       </c>
     </row>
@@ -1879,13 +1875,13 @@
       <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45">
         <v>0.08</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>4.28</v>
       </c>
     </row>
@@ -1896,13 +1892,13 @@
       <c r="B46" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>16.309999999999999</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46">
         <v>10.38</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>22.24</v>
       </c>
     </row>
@@ -1913,13 +1909,13 @@
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>0.86</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>0.43</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47">
         <v>1.29</v>
       </c>
     </row>
@@ -1930,13 +1926,13 @@
       <c r="B48" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>63.99</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>47.97</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48">
         <v>80.02</v>
       </c>
     </row>
@@ -1947,13 +1943,13 @@
       <c r="B49" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>80.239999999999995</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>66.42</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49">
         <v>94.05</v>
       </c>
     </row>
@@ -1964,13 +1960,13 @@
       <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>33.78</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>19.22</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>48.33</v>
       </c>
     </row>
@@ -1981,13 +1977,13 @@
       <c r="B51" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>11.79</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51">
         <v>1.92</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>21.65</v>
       </c>
     </row>
@@ -1998,13 +1994,13 @@
       <c r="B52" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>20.350000000000001</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52">
         <v>8.2200000000000006</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>32.479999999999997</v>
       </c>
     </row>
@@ -2015,13 +2011,13 @@
       <c r="B53" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>45.16</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53">
         <v>28.64</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>61.68</v>
       </c>
     </row>
@@ -2032,13 +2028,13 @@
       <c r="B54" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>96.8</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54">
         <v>93.43</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54">
         <v>99.99</v>
       </c>
     </row>
@@ -2049,13 +2045,13 @@
       <c r="B55" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>14.56</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55">
         <v>6.83</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55">
         <v>22.28</v>
       </c>
     </row>
@@ -2066,13 +2062,13 @@
       <c r="B56" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>3.2</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56">
         <v>0.01</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56">
         <v>6.49</v>
       </c>
     </row>
@@ -2083,13 +2079,13 @@
       <c r="B57" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>98.09</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57">
         <v>95.64</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>99.99</v>
       </c>
     </row>
@@ -2100,13 +2096,13 @@
       <c r="B58" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>0.23</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58">
         <v>0.01</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>0.92</v>
       </c>
     </row>
@@ -2117,13 +2113,13 @@
       <c r="B59" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>0.89</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59">
         <v>0.01</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59">
         <v>2.2200000000000002</v>
       </c>
     </row>
@@ -2134,13 +2130,13 @@
       <c r="B60" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>0.63</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60">
         <v>0.01</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60">
         <v>1.92</v>
       </c>
     </row>
@@ -2151,13 +2147,13 @@
       <c r="B61" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>26.55</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61">
         <v>19.32</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>33.78</v>
       </c>
     </row>
@@ -2168,13 +2164,13 @@
       <c r="B62" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>60.19</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62">
         <v>52.05</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>68.33</v>
       </c>
     </row>
@@ -2185,13 +2181,13 @@
       <c r="B63" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>72.010000000000005</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63">
         <v>59.32</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63">
         <v>84.69</v>
       </c>
     </row>
@@ -2202,13 +2198,13 @@
       <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>19.399999999999999</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64">
         <v>18.7</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64">
         <v>20.100000000000001</v>
       </c>
     </row>
@@ -2219,13 +2215,13 @@
       <c r="B65" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>83.87</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65">
         <v>73.650000000000006</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65">
         <v>94.09</v>
       </c>
     </row>
@@ -2236,13 +2232,13 @@
       <c r="B66" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>83.91</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66">
         <v>73.66</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66">
         <v>94.15</v>
       </c>
     </row>
@@ -2253,13 +2249,13 @@
       <c r="B67" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>80.98</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67">
         <v>55.65</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67">
         <v>99.99</v>
       </c>
     </row>
@@ -2270,13 +2266,13 @@
       <c r="B68" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>83.23</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68">
         <v>69.849999999999994</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68">
         <v>96.61</v>
       </c>
     </row>
@@ -2287,13 +2283,13 @@
       <c r="B69" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>83.41</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69">
         <v>71.75</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69">
         <v>95.07</v>
       </c>
     </row>
@@ -2304,13 +2300,13 @@
       <c r="B70" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>85.39</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70">
         <v>72.650000000000006</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70">
         <v>98.13</v>
       </c>
     </row>
@@ -2321,13 +2317,13 @@
       <c r="B71" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>85.37</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71">
         <v>69.819999999999993</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71">
         <v>99.99</v>
       </c>
     </row>
@@ -2338,13 +2334,13 @@
       <c r="B72" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>85.76</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72">
         <v>64.34</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72">
         <v>99.99</v>
       </c>
     </row>
@@ -2355,13 +2351,13 @@
       <c r="B73" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>85.22</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73">
         <v>49.25</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73">
         <v>99.99</v>
       </c>
     </row>
@@ -2372,13 +2368,13 @@
       <c r="B74" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>65.319999999999993</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74">
         <v>29.58</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74">
         <v>99.99</v>
       </c>
     </row>
@@ -2389,14 +2385,14 @@
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="1">
-        <v>1.66</v>
-      </c>
-      <c r="D75" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E75" s="1">
-        <v>1.82</v>
+      <c r="C75">
+        <v>1.67</v>
+      </c>
+      <c r="D75">
+        <v>1.51</v>
+      </c>
+      <c r="E75">
+        <v>1.83</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2406,14 +2402,14 @@
       <c r="B76" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="1">
-        <v>12.57</v>
-      </c>
-      <c r="D76" s="1">
-        <v>6.18</v>
-      </c>
-      <c r="E76" s="1">
-        <v>18.96</v>
+      <c r="C76">
+        <v>12.27</v>
+      </c>
+      <c r="D76">
+        <v>5.93</v>
+      </c>
+      <c r="E76">
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2423,14 +2419,14 @@
       <c r="B77" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="D77" s="1">
-        <v>2.72</v>
-      </c>
-      <c r="E77" s="1">
-        <v>12.27</v>
+      <c r="C77">
+        <v>7.4</v>
+      </c>
+      <c r="D77">
+        <v>2.69</v>
+      </c>
+      <c r="E77">
+        <v>12.1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2440,14 +2436,14 @@
       <c r="B78" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="1">
-        <v>32.9</v>
-      </c>
-      <c r="D78" s="1">
-        <v>24.17</v>
-      </c>
-      <c r="E78" s="1">
-        <v>41.62</v>
+      <c r="C78">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="D78">
+        <v>24.3</v>
+      </c>
+      <c r="E78">
+        <v>41.95</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -2457,14 +2453,14 @@
       <c r="B79" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="1">
-        <v>31.39</v>
-      </c>
-      <c r="D79" s="1">
-        <v>22.77</v>
-      </c>
-      <c r="E79" s="1">
-        <v>40.020000000000003</v>
+      <c r="C79">
+        <v>31.17</v>
+      </c>
+      <c r="D79">
+        <v>22.64</v>
+      </c>
+      <c r="E79">
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -2474,14 +2470,14 @@
       <c r="B80" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="1">
-        <v>81.58</v>
-      </c>
-      <c r="D80" s="1">
-        <v>75.239999999999995</v>
-      </c>
-      <c r="E80" s="1">
-        <v>87.91</v>
+      <c r="C80">
+        <v>81.84</v>
+      </c>
+      <c r="D80">
+        <v>75.5</v>
+      </c>
+      <c r="E80">
+        <v>88.19</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -2491,14 +2487,14 @@
       <c r="B81" t="s">
         <v>9</v>
       </c>
-      <c r="C81" s="1">
-        <v>4.43</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="E81" s="1">
-        <v>7.94</v>
+      <c r="C81">
+        <v>4.16</v>
+      </c>
+      <c r="D81">
+        <v>0.66</v>
+      </c>
+      <c r="E81">
+        <v>7.66</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -2508,14 +2504,14 @@
       <c r="B82" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="1">
-        <v>14.55</v>
-      </c>
-      <c r="D82" s="1">
+      <c r="C82">
+        <v>14.57</v>
+      </c>
+      <c r="D82">
         <v>8.02</v>
       </c>
-      <c r="E82" s="1">
-        <v>21.08</v>
+      <c r="E82">
+        <v>21.11</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -2525,14 +2521,14 @@
       <c r="B83" t="s">
         <v>9</v>
       </c>
-      <c r="C83" s="1">
-        <v>26.98</v>
-      </c>
-      <c r="D83" s="1">
+      <c r="C83">
+        <v>26.97</v>
+      </c>
+      <c r="D83">
         <v>19.010000000000002</v>
       </c>
-      <c r="E83" s="1">
-        <v>34.950000000000003</v>
+      <c r="E83">
+        <v>34.94</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -2542,13 +2538,13 @@
       <c r="B84" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="1">
-        <v>96.6</v>
-      </c>
-      <c r="D84" s="1">
-        <v>93.11</v>
-      </c>
-      <c r="E84" s="1">
+      <c r="C84">
+        <v>96.87</v>
+      </c>
+      <c r="D84">
+        <v>93.4</v>
+      </c>
+      <c r="E84">
         <v>99.99</v>
       </c>
     </row>
@@ -2559,14 +2555,14 @@
       <c r="B85" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="1">
-        <v>29.62</v>
-      </c>
-      <c r="D85" s="1">
-        <v>21.42</v>
-      </c>
-      <c r="E85" s="1">
-        <v>37.83</v>
+      <c r="C85">
+        <v>29.33</v>
+      </c>
+      <c r="D85">
+        <v>21.13</v>
+      </c>
+      <c r="E85">
+        <v>37.54</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -2576,14 +2572,14 @@
       <c r="B86" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="1">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="D86" s="1">
-        <v>3.61</v>
-      </c>
-      <c r="E86" s="1">
-        <v>13.45</v>
+      <c r="C86">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="D86">
+        <v>3.62</v>
+      </c>
+      <c r="E86">
+        <v>13.48</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2593,14 +2589,14 @@
       <c r="B87" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="1">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="D87" s="1">
-        <v>10.28</v>
-      </c>
-      <c r="E87" s="1">
-        <v>25.43</v>
+      <c r="C87">
+        <v>17.86</v>
+      </c>
+      <c r="D87">
+        <v>10.29</v>
+      </c>
+      <c r="E87">
+        <v>25.44</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -2610,14 +2606,14 @@
       <c r="B88" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="1">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="D88" s="1">
+      <c r="C88">
+        <v>2.46</v>
+      </c>
+      <c r="D88">
         <v>0.01</v>
       </c>
-      <c r="E88" s="1">
-        <v>5.01</v>
+      <c r="E88">
+        <v>4.96</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2627,14 +2623,14 @@
       <c r="B89" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="1">
-        <v>52.03</v>
-      </c>
-      <c r="D89" s="1">
-        <v>42.94</v>
-      </c>
-      <c r="E89" s="1">
-        <v>61.11</v>
+      <c r="C89">
+        <v>52.28</v>
+      </c>
+      <c r="D89">
+        <v>43.19</v>
+      </c>
+      <c r="E89">
+        <v>61.37</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2644,14 +2640,14 @@
       <c r="B90" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="1">
-        <v>5.0599999999999996</v>
-      </c>
-      <c r="D90" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="E90" s="1">
-        <v>8.5299999999999994</v>
+      <c r="C90">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D90">
+        <v>1.37</v>
+      </c>
+      <c r="E90">
+        <v>8.25</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2661,13 +2657,13 @@
       <c r="B91" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91">
         <v>32.67</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91">
         <v>24.16</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91">
         <v>41.18</v>
       </c>
     </row>
@@ -2678,13 +2674,13 @@
       <c r="B92" t="s">
         <v>9</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
         <v>3.39</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92">
         <v>0.01</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92">
         <v>7.82</v>
       </c>
     </row>
@@ -2695,14 +2691,14 @@
       <c r="B93" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93">
         <v>47.7</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93">
         <v>37.07</v>
       </c>
-      <c r="E93" s="1">
-        <v>58.32</v>
+      <c r="E93">
+        <v>58.33</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2712,13 +2708,13 @@
       <c r="B94" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="1">
-        <v>2.94</v>
-      </c>
-      <c r="D94" s="1">
+      <c r="C94">
+        <v>2.95</v>
+      </c>
+      <c r="D94">
         <v>2.7</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94">
         <v>3.19</v>
       </c>
     </row>
@@ -2729,14 +2725,14 @@
       <c r="B95" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="1">
-        <v>10.47</v>
-      </c>
-      <c r="D95" s="1">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="E95" s="1">
-        <v>15.95</v>
+      <c r="C95">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="D95">
+        <v>4.41</v>
+      </c>
+      <c r="E95">
+        <v>15.33</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2746,14 +2742,14 @@
       <c r="B96" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="1">
-        <v>74.69</v>
-      </c>
-      <c r="D96" s="1">
-        <v>66.430000000000007</v>
-      </c>
-      <c r="E96" s="1">
-        <v>82.94</v>
+      <c r="C96">
+        <v>74.94</v>
+      </c>
+      <c r="D96">
+        <v>66.680000000000007</v>
+      </c>
+      <c r="E96">
+        <v>83.21</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2763,14 +2759,14 @@
       <c r="B97" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="1">
-        <v>34.950000000000003</v>
-      </c>
-      <c r="D97" s="1">
-        <v>26.43</v>
-      </c>
-      <c r="E97" s="1">
-        <v>43.46</v>
+      <c r="C97">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D97">
+        <v>26.19</v>
+      </c>
+      <c r="E97">
+        <v>43.2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2780,14 +2776,14 @@
       <c r="B98" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="1">
-        <v>82.57</v>
-      </c>
-      <c r="D98" s="1">
-        <v>75.33</v>
-      </c>
-      <c r="E98" s="1">
-        <v>89.8</v>
+      <c r="C98">
+        <v>82.82</v>
+      </c>
+      <c r="D98">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="E98">
+        <v>90.07</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2797,14 +2793,14 @@
       <c r="B99" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="1">
-        <v>35.07</v>
-      </c>
-      <c r="D99" s="1">
-        <v>26.37</v>
-      </c>
-      <c r="E99" s="1">
-        <v>43.76</v>
+      <c r="C99">
+        <v>34.83</v>
+      </c>
+      <c r="D99">
+        <v>26.14</v>
+      </c>
+      <c r="E99">
+        <v>43.51</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2814,14 +2810,14 @@
       <c r="B100" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="D100" s="1">
-        <v>40.65</v>
-      </c>
-      <c r="E100" s="1">
-        <v>61.75</v>
+      <c r="C100">
+        <v>51.18</v>
+      </c>
+      <c r="D100">
+        <v>40.64</v>
+      </c>
+      <c r="E100">
+        <v>61.73</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2831,14 +2827,14 @@
       <c r="B101" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="1">
-        <v>67.34</v>
-      </c>
-      <c r="D101" s="1">
-        <v>58.05</v>
-      </c>
-      <c r="E101" s="1">
-        <v>76.63</v>
+      <c r="C101">
+        <v>67.36</v>
+      </c>
+      <c r="D101">
+        <v>58.07</v>
+      </c>
+      <c r="E101">
+        <v>76.650000000000006</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2848,14 +2844,14 @@
       <c r="B102" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="1">
-        <v>66.52</v>
-      </c>
-      <c r="D102" s="1">
-        <v>57.38</v>
-      </c>
-      <c r="E102" s="1">
-        <v>75.66</v>
+      <c r="C102">
+        <v>66.75</v>
+      </c>
+      <c r="D102">
+        <v>57.61</v>
+      </c>
+      <c r="E102">
+        <v>75.89</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2865,14 +2861,14 @@
       <c r="B103" t="s">
         <v>9</v>
       </c>
-      <c r="C103" s="1">
-        <v>47.94</v>
-      </c>
-      <c r="D103" s="1">
-        <v>37.369999999999997</v>
-      </c>
-      <c r="E103" s="1">
-        <v>58.52</v>
+      <c r="C103">
+        <v>47.69</v>
+      </c>
+      <c r="D103">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="E103">
+        <v>58.26</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2882,14 +2878,14 @@
       <c r="B104" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="1">
-        <v>69.47</v>
-      </c>
-      <c r="D104" s="1">
-        <v>61.16</v>
-      </c>
-      <c r="E104" s="1">
-        <v>77.77</v>
+      <c r="C104">
+        <v>69.72</v>
+      </c>
+      <c r="D104">
+        <v>61.4</v>
+      </c>
+      <c r="E104">
+        <v>78.040000000000006</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2899,13 +2895,13 @@
       <c r="B105" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105">
         <v>82.83</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105">
         <v>75.62</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105">
         <v>90.03</v>
       </c>
     </row>
@@ -2916,13 +2912,13 @@
       <c r="B106" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106">
         <v>88.01</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106">
         <v>81.459999999999994</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106">
         <v>94.56</v>
       </c>
     </row>
@@ -2933,14 +2929,14 @@
       <c r="B107" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="1">
-        <v>69.739999999999995</v>
-      </c>
-      <c r="D107" s="1">
+      <c r="C107">
+        <v>69.73</v>
+      </c>
+      <c r="D107">
         <v>61.33</v>
       </c>
-      <c r="E107" s="1">
-        <v>78.150000000000006</v>
+      <c r="E107">
+        <v>78.14</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2950,14 +2946,14 @@
       <c r="B108" t="s">
         <v>9</v>
       </c>
-      <c r="C108" s="1">
-        <v>83.41</v>
-      </c>
-      <c r="D108" s="1">
-        <v>76.03</v>
-      </c>
-      <c r="E108" s="1">
-        <v>90.78</v>
+      <c r="C108">
+        <v>83.42</v>
+      </c>
+      <c r="D108">
+        <v>76.06</v>
+      </c>
+      <c r="E108">
+        <v>90.79</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2967,14 +2963,14 @@
       <c r="B109" t="s">
         <v>9</v>
       </c>
-      <c r="C109" s="1">
-        <v>76.92</v>
-      </c>
-      <c r="D109" s="1">
-        <v>68.92</v>
-      </c>
-      <c r="E109" s="1">
-        <v>84.92</v>
+      <c r="C109">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="D109">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="E109">
+        <v>84.91</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2984,13 +2980,13 @@
       <c r="B110" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110">
         <v>62.13</v>
       </c>
-      <c r="D110" s="1">
-        <v>53.14</v>
-      </c>
-      <c r="E110" s="1">
+      <c r="D110">
+        <v>53.13</v>
+      </c>
+      <c r="E110">
         <v>71.13</v>
       </c>
     </row>
@@ -3001,14 +2997,14 @@
       <c r="B111" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="1">
-        <v>60.62</v>
-      </c>
-      <c r="D111" s="1">
-        <v>51.19</v>
-      </c>
-      <c r="E111" s="1">
-        <v>70.05</v>
+      <c r="C111">
+        <v>60.37</v>
+      </c>
+      <c r="D111">
+        <v>50.95</v>
+      </c>
+      <c r="E111">
+        <v>69.790000000000006</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -3018,14 +3014,14 @@
       <c r="B112" t="s">
         <v>9</v>
       </c>
-      <c r="C112" s="1">
-        <v>38.43</v>
-      </c>
-      <c r="D112" s="1">
-        <v>29.21</v>
-      </c>
-      <c r="E112" s="1">
-        <v>47.65</v>
+      <c r="C112">
+        <v>38.479999999999997</v>
+      </c>
+      <c r="D112">
+        <v>29.24</v>
+      </c>
+      <c r="E112">
+        <v>47.73</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -3035,14 +3031,14 @@
       <c r="B113" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="1">
-        <v>141.04</v>
-      </c>
-      <c r="D113" s="1">
-        <v>139.27000000000001</v>
-      </c>
-      <c r="E113" s="1">
-        <v>142.81</v>
+      <c r="C113">
+        <v>141.44</v>
+      </c>
+      <c r="D113">
+        <v>139.66</v>
+      </c>
+      <c r="E113">
+        <v>143.21</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -3052,14 +3048,14 @@
       <c r="B114" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="1">
-        <v>49.24</v>
-      </c>
-      <c r="D114" s="1">
-        <v>36.94</v>
-      </c>
-      <c r="E114" s="1">
-        <v>61.54</v>
+      <c r="C114">
+        <v>9.5</v>
+      </c>
+      <c r="D114">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E114">
+        <v>14.09</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -3069,14 +3065,14 @@
       <c r="B115" t="s">
         <v>9</v>
       </c>
-      <c r="C115" s="1">
-        <v>7.64</v>
-      </c>
-      <c r="D115" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="E115" s="1">
-        <v>12.57</v>
+      <c r="C115">
+        <v>7.63</v>
+      </c>
+      <c r="D115">
+        <v>2.69</v>
+      </c>
+      <c r="E115">
+        <v>12.56</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -3086,14 +3082,14 @@
       <c r="B116" t="s">
         <v>9</v>
       </c>
-      <c r="C116" s="1">
-        <v>1.79</v>
-      </c>
-      <c r="D116" s="1">
+      <c r="C116">
+        <v>1.76</v>
+      </c>
+      <c r="D116">
         <v>0.01</v>
       </c>
-      <c r="E116" s="1">
-        <v>3.67</v>
+      <c r="E116">
+        <v>3.62</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -3103,14 +3099,14 @@
       <c r="B117" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="1">
-        <v>-1.48</v>
-      </c>
-      <c r="D117" s="1">
-        <v>-1.7</v>
-      </c>
-      <c r="E117" s="1">
-        <v>-1.27</v>
+      <c r="C117">
+        <v>-1.49</v>
+      </c>
+      <c r="D117">
+        <v>-1.71</v>
+      </c>
+      <c r="E117">
+        <v>-1.28</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -3120,14 +3116,14 @@
       <c r="B118" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="1">
-        <v>35.520000000000003</v>
-      </c>
-      <c r="D118" s="1">
-        <v>28.52</v>
-      </c>
-      <c r="E118" s="1">
-        <v>42.52</v>
+      <c r="C118">
+        <v>36.35</v>
+      </c>
+      <c r="D118">
+        <v>29.56</v>
+      </c>
+      <c r="E118">
+        <v>43.14</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -3137,14 +3133,14 @@
       <c r="B119" t="s">
         <v>9</v>
       </c>
-      <c r="C119" s="1">
-        <v>21.34</v>
-      </c>
-      <c r="D119" s="1">
-        <v>12.93</v>
-      </c>
-      <c r="E119" s="1">
-        <v>29.76</v>
+      <c r="C119">
+        <v>21.25</v>
+      </c>
+      <c r="D119">
+        <v>12.81</v>
+      </c>
+      <c r="E119">
+        <v>29.7</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -3154,14 +3150,14 @@
       <c r="B120" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="1">
-        <v>15.04</v>
-      </c>
-      <c r="D120" s="1">
-        <v>9.82</v>
-      </c>
-      <c r="E120" s="1">
-        <v>20.260000000000002</v>
+      <c r="C120">
+        <v>15.06</v>
+      </c>
+      <c r="D120">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="E120">
+        <v>20.25</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -3171,14 +3167,14 @@
       <c r="B121" t="s">
         <v>6</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121">
         <v>-1.41</v>
       </c>
-      <c r="D121" s="1">
-        <v>-1.58</v>
-      </c>
-      <c r="E121" s="1">
-        <v>-1.23</v>
+      <c r="D121">
+        <v>-1.59</v>
+      </c>
+      <c r="E121">
+        <v>-1.24</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -3188,14 +3184,14 @@
       <c r="B122" t="s">
         <v>9</v>
       </c>
-      <c r="C122" s="1">
-        <v>28.44</v>
-      </c>
-      <c r="D122" s="1">
-        <v>21.18</v>
-      </c>
-      <c r="E122" s="1">
-        <v>35.71</v>
+      <c r="C122">
+        <v>29.16</v>
+      </c>
+      <c r="D122">
+        <v>22.05</v>
+      </c>
+      <c r="E122">
+        <v>36.270000000000003</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -3205,14 +3201,14 @@
       <c r="B123" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="1">
-        <v>21.19</v>
-      </c>
-      <c r="D123" s="1">
-        <v>12.89</v>
-      </c>
-      <c r="E123" s="1">
-        <v>29.49</v>
+      <c r="C123">
+        <v>21.14</v>
+      </c>
+      <c r="D123">
+        <v>12.82</v>
+      </c>
+      <c r="E123">
+        <v>29.45</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -3222,14 +3218,14 @@
       <c r="B124" t="s">
         <v>9</v>
       </c>
-      <c r="C124" s="1">
-        <v>7.96</v>
-      </c>
-      <c r="D124" s="1">
+      <c r="C124">
+        <v>7.93</v>
+      </c>
+      <c r="D124">
         <v>3.43</v>
       </c>
-      <c r="E124" s="1">
-        <v>12.49</v>
+      <c r="E124">
+        <v>12.42</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -3239,14 +3235,14 @@
       <c r="B125" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125">
         <v>-0.76</v>
       </c>
-      <c r="D125" s="1">
-        <v>-0.95</v>
-      </c>
-      <c r="E125" s="1">
-        <v>-0.56000000000000005</v>
+      <c r="D125">
+        <v>-0.96</v>
+      </c>
+      <c r="E125">
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3256,14 +3252,14 @@
       <c r="B126" t="s">
         <v>9</v>
       </c>
-      <c r="C126" s="1">
-        <v>13.29</v>
-      </c>
-      <c r="D126" s="1">
-        <v>7.76</v>
-      </c>
-      <c r="E126" s="1">
-        <v>18.82</v>
+      <c r="C126">
+        <v>13.6</v>
+      </c>
+      <c r="D126">
+        <v>8.16</v>
+      </c>
+      <c r="E126">
+        <v>19.04</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -3273,14 +3269,14 @@
       <c r="B127" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="1">
-        <v>10.79</v>
-      </c>
-      <c r="D127" s="1">
-        <v>4.71</v>
-      </c>
-      <c r="E127" s="1">
-        <v>16.88</v>
+      <c r="C127">
+        <v>10.78</v>
+      </c>
+      <c r="D127">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E127">
+        <v>16.87</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -3290,14 +3286,14 @@
       <c r="B128" t="s">
         <v>9</v>
       </c>
-      <c r="C128" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="D128" s="1">
+      <c r="C128">
+        <v>2.72</v>
+      </c>
+      <c r="D128">
         <v>0.01</v>
       </c>
-      <c r="E128" s="1">
-        <v>5.68</v>
+      <c r="E128">
+        <v>5.58</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -3307,14 +3303,14 @@
       <c r="B129" t="s">
         <v>9</v>
       </c>
-      <c r="C129" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="D129" s="1">
+      <c r="C129">
+        <v>0.18</v>
+      </c>
+      <c r="D129">
         <v>0.01</v>
       </c>
-      <c r="E129" s="1">
-        <v>0.9</v>
+      <c r="E129">
+        <v>0.86</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -3324,14 +3320,14 @@
       <c r="B130" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="1">
-        <v>2.13</v>
-      </c>
-      <c r="D130" s="1">
+      <c r="C130">
+        <v>2.14</v>
+      </c>
+      <c r="D130">
         <v>0.01</v>
       </c>
-      <c r="E130" s="1">
-        <v>4.41</v>
+      <c r="E130">
+        <v>4.42</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -3341,14 +3337,14 @@
       <c r="B131" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="D131" s="1">
+      <c r="C131">
+        <v>0.85</v>
+      </c>
+      <c r="D131">
         <v>0.01</v>
       </c>
-      <c r="E131" s="1">
-        <v>2.68</v>
+      <c r="E131">
+        <v>2.66</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3358,14 +3354,14 @@
       <c r="B132" t="s">
         <v>9</v>
       </c>
-      <c r="C132" s="1">
-        <v>23.9</v>
-      </c>
-      <c r="D132" s="1">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="E132" s="1">
-        <v>29.95</v>
+      <c r="C132">
+        <v>23.98</v>
+      </c>
+      <c r="D132">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E132">
+        <v>30.05</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -3375,14 +3371,14 @@
       <c r="B133" t="s">
         <v>9</v>
       </c>
-      <c r="C133" s="1">
-        <v>23.57</v>
-      </c>
-      <c r="D133" s="1">
-        <v>16.8</v>
-      </c>
-      <c r="E133" s="1">
-        <v>30.34</v>
+      <c r="C133">
+        <v>23.73</v>
+      </c>
+      <c r="D133">
+        <v>16.96</v>
+      </c>
+      <c r="E133">
+        <v>30.51</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -3392,14 +3388,14 @@
       <c r="B134" t="s">
         <v>9</v>
       </c>
-      <c r="C134" s="1">
-        <v>23.35</v>
-      </c>
-      <c r="D134" s="1">
-        <v>17.34</v>
-      </c>
-      <c r="E134" s="1">
-        <v>29.36</v>
+      <c r="C134">
+        <v>23.13</v>
+      </c>
+      <c r="D134">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="E134">
+        <v>29.12</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -3409,14 +3405,14 @@
       <c r="B135" t="s">
         <v>9</v>
       </c>
-      <c r="C135" s="1">
-        <v>62.72</v>
-      </c>
-      <c r="D135" s="1">
-        <v>47.67</v>
-      </c>
-      <c r="E135" s="1">
-        <v>77.77</v>
+      <c r="C135">
+        <v>62.87</v>
+      </c>
+      <c r="D135">
+        <v>47.8</v>
+      </c>
+      <c r="E135">
+        <v>77.930000000000007</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -3426,14 +3422,14 @@
       <c r="B136" t="s">
         <v>9</v>
       </c>
-      <c r="C136" s="1">
-        <v>70.17</v>
-      </c>
-      <c r="D136" s="1">
-        <v>56.54</v>
-      </c>
-      <c r="E136" s="1">
-        <v>83.81</v>
+      <c r="C136">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="D136">
+        <v>56.48</v>
+      </c>
+      <c r="E136">
+        <v>83.72</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -3443,13 +3439,13 @@
       <c r="B137" t="s">
         <v>9</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137">
         <v>74.72</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137">
         <v>61.76</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137">
         <v>87.68</v>
       </c>
     </row>
@@ -3460,14 +3456,14 @@
       <c r="B138" t="s">
         <v>9</v>
       </c>
-      <c r="C138" s="1">
-        <v>25.86</v>
-      </c>
-      <c r="D138" s="1">
-        <v>13.92</v>
-      </c>
-      <c r="E138" s="1">
-        <v>37.81</v>
+      <c r="C138">
+        <v>25.79</v>
+      </c>
+      <c r="D138">
+        <v>13.86</v>
+      </c>
+      <c r="E138">
+        <v>37.729999999999997</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -3477,14 +3473,14 @@
       <c r="B139" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="1">
-        <v>43.28</v>
-      </c>
-      <c r="D139" s="1">
-        <v>29.47</v>
-      </c>
-      <c r="E139" s="1">
-        <v>57.09</v>
+      <c r="C139">
+        <v>43.52</v>
+      </c>
+      <c r="D139">
+        <v>29.71</v>
+      </c>
+      <c r="E139">
+        <v>57.34</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -3494,13 +3490,13 @@
       <c r="B140" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140">
         <v>56.46</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140">
         <v>42.88</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140">
         <v>70.040000000000006</v>
       </c>
     </row>
@@ -3511,14 +3507,14 @@
       <c r="B141" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="D141" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E141" s="1">
-        <v>0.93</v>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -3528,13 +3524,13 @@
       <c r="B142" t="s">
         <v>9</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142">
         <v>1.07</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142">
         <v>0.01</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142">
         <v>4.03</v>
       </c>
     </row>
@@ -3545,13 +3541,13 @@
       <c r="B143" t="s">
         <v>9</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143">
         <v>27.18</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143">
         <v>20.12</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143">
         <v>34.24</v>
       </c>
     </row>
@@ -3562,14 +3558,14 @@
       <c r="B144" t="s">
         <v>150</v>
       </c>
-      <c r="C144" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="D144" s="1">
-        <v>0.44</v>
-      </c>
-      <c r="E144" s="1">
-        <v>0.94</v>
+      <c r="C144">
+        <v>68.77</v>
+      </c>
+      <c r="D144">
+        <v>43.61</v>
+      </c>
+      <c r="E144">
+        <v>93.93</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -3579,14 +3575,14 @@
       <c r="B145" t="s">
         <v>9</v>
       </c>
-      <c r="C145" s="1">
-        <v>16.440000000000001</v>
-      </c>
-      <c r="D145" s="1">
-        <v>10.14</v>
-      </c>
-      <c r="E145" s="1">
-        <v>22.74</v>
+      <c r="C145">
+        <v>16.45</v>
+      </c>
+      <c r="D145">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="E145">
+        <v>22.76</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -3596,14 +3592,14 @@
       <c r="B146" t="s">
         <v>9</v>
       </c>
-      <c r="C146" s="1">
-        <v>53.44</v>
-      </c>
-      <c r="D146" s="1">
-        <v>40.06</v>
-      </c>
-      <c r="E146" s="1">
-        <v>66.83</v>
+      <c r="C146">
+        <v>53.6</v>
+      </c>
+      <c r="D146">
+        <v>40.17</v>
+      </c>
+      <c r="E146">
+        <v>67.03</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -3613,14 +3609,14 @@
       <c r="B147" t="s">
         <v>9</v>
       </c>
-      <c r="C147" s="1">
-        <v>80.8</v>
-      </c>
-      <c r="D147" s="1">
-        <v>70.42</v>
-      </c>
-      <c r="E147" s="1">
-        <v>91.18</v>
+      <c r="C147">
+        <v>80.739999999999995</v>
+      </c>
+      <c r="D147">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E147">
+        <v>91.09</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -3630,14 +3626,14 @@
       <c r="B148" t="s">
         <v>9</v>
       </c>
-      <c r="C148" s="1">
-        <v>72.25</v>
-      </c>
-      <c r="D148" s="1">
-        <v>62.35</v>
-      </c>
-      <c r="E148" s="1">
-        <v>82.14</v>
+      <c r="C148">
+        <v>72.13</v>
+      </c>
+      <c r="D148">
+        <v>62.27</v>
+      </c>
+      <c r="E148">
+        <v>82</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -3647,14 +3643,14 @@
       <c r="B149" t="s">
         <v>9</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149">
         <v>0.3</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149">
         <v>0.01</v>
       </c>
-      <c r="E149" s="1">
-        <v>1.8</v>
+      <c r="E149">
+        <v>1.83</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -3664,13 +3660,13 @@
       <c r="B150" t="s">
         <v>9</v>
       </c>
-      <c r="C150" s="1">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="D150" s="1">
+      <c r="C150">
+        <v>17.55</v>
+      </c>
+      <c r="D150">
         <v>0.54</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150">
         <v>34.57</v>
       </c>
     </row>
@@ -3681,13 +3677,13 @@
       <c r="B151" t="s">
         <v>9</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151">
         <v>0.09</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151">
         <v>0.01</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151">
         <v>1.32</v>
       </c>
     </row>
@@ -3698,14 +3694,14 @@
       <c r="B152" t="s">
         <v>9</v>
       </c>
-      <c r="C152" s="1">
-        <v>3.17</v>
-      </c>
-      <c r="D152" s="1">
+      <c r="C152">
+        <v>3.22</v>
+      </c>
+      <c r="D152">
         <v>0.01</v>
       </c>
-      <c r="E152" s="1">
-        <v>8.84</v>
+      <c r="E152">
+        <v>8.94</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -3715,14 +3711,14 @@
       <c r="B153" t="s">
         <v>9</v>
       </c>
-      <c r="C153" s="1">
-        <v>14.22</v>
-      </c>
-      <c r="D153" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="E153" s="1">
-        <v>27.98</v>
+      <c r="C153">
+        <v>14.16</v>
+      </c>
+      <c r="D153">
+        <v>0.42</v>
+      </c>
+      <c r="E153">
+        <v>27.9</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -3732,13 +3728,13 @@
       <c r="B154" t="s">
         <v>9</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154">
         <v>1.77</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154">
         <v>0.01</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154">
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -3749,14 +3745,14 @@
       <c r="B155" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="D155" s="1">
+      <c r="C155">
+        <v>0.11</v>
+      </c>
+      <c r="D155">
         <v>0.01</v>
       </c>
-      <c r="E155" s="1">
-        <v>0.8</v>
+      <c r="E155">
+        <v>0.87</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -3766,14 +3762,14 @@
       <c r="B156" t="s">
         <v>9</v>
       </c>
-      <c r="C156" s="1">
-        <v>19.21</v>
-      </c>
-      <c r="D156" s="1">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="E156" s="1">
-        <v>33.78</v>
+      <c r="C156">
+        <v>19.2</v>
+      </c>
+      <c r="D156">
+        <v>4.63</v>
+      </c>
+      <c r="E156">
+        <v>33.770000000000003</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -3783,14 +3779,14 @@
       <c r="B157" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="1">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="D157" s="1">
+      <c r="C157">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D157">
         <v>0.01</v>
       </c>
-      <c r="E157" s="1">
-        <v>11.76</v>
+      <c r="E157">
+        <v>12.01</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -3800,14 +3796,14 @@
       <c r="B158" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="1">
-        <v>36.4</v>
-      </c>
-      <c r="D158" s="1">
-        <v>17.95</v>
-      </c>
-      <c r="E158" s="1">
-        <v>54.84</v>
+      <c r="C158">
+        <v>36.28</v>
+      </c>
+      <c r="D158">
+        <v>17.84</v>
+      </c>
+      <c r="E158">
+        <v>54.71</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -3817,14 +3813,14 @@
       <c r="B159" t="s">
         <v>9</v>
       </c>
-      <c r="C159" s="1">
-        <v>66.650000000000006</v>
-      </c>
-      <c r="D159" s="1">
-        <v>57.48</v>
-      </c>
-      <c r="E159" s="1">
-        <v>75.83</v>
+      <c r="C159">
+        <v>66.569999999999993</v>
+      </c>
+      <c r="D159">
+        <v>57.41</v>
+      </c>
+      <c r="E159">
+        <v>75.72</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -3834,13 +3830,13 @@
       <c r="B160" t="s">
         <v>9</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160">
         <v>6.03</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160">
         <v>1.54</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160">
         <v>10.51</v>
       </c>
     </row>
@@ -3851,13 +3847,13 @@
       <c r="B161" t="s">
         <v>9</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161">
         <v>12.89</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161">
         <v>6.62</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161">
         <v>19.16</v>
       </c>
     </row>
@@ -3868,14 +3864,14 @@
       <c r="B162" t="s">
         <v>9</v>
       </c>
-      <c r="C162" s="1">
-        <v>7.51</v>
-      </c>
-      <c r="D162" s="1">
+      <c r="C162">
+        <v>7.55</v>
+      </c>
+      <c r="D162">
         <v>3.86</v>
       </c>
-      <c r="E162" s="1">
-        <v>11.16</v>
+      <c r="E162">
+        <v>11.23</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -3885,14 +3881,14 @@
       <c r="B163" t="s">
         <v>9</v>
       </c>
-      <c r="C163" s="1">
-        <v>38.369999999999997</v>
-      </c>
-      <c r="D163" s="1">
-        <v>27.7</v>
-      </c>
-      <c r="E163" s="1">
-        <v>49.04</v>
+      <c r="C163">
+        <v>38.36</v>
+      </c>
+      <c r="D163">
+        <v>27.68</v>
+      </c>
+      <c r="E163">
+        <v>49.03</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -3902,14 +3898,14 @@
       <c r="B164" t="s">
         <v>9</v>
       </c>
-      <c r="C164" s="1">
-        <v>23.12</v>
-      </c>
-      <c r="D164" s="1">
-        <v>15.88</v>
-      </c>
-      <c r="E164" s="1">
-        <v>30.36</v>
+      <c r="C164">
+        <v>23.36</v>
+      </c>
+      <c r="D164">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="E164">
+        <v>30.66</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -3919,14 +3915,14 @@
       <c r="B165" t="s">
         <v>9</v>
       </c>
-      <c r="C165" s="1">
-        <v>62.36</v>
-      </c>
-      <c r="D165" s="1">
-        <v>44.02</v>
-      </c>
-      <c r="E165" s="1">
-        <v>80.7</v>
+      <c r="C165">
+        <v>62.31</v>
+      </c>
+      <c r="D165">
+        <v>43.99</v>
+      </c>
+      <c r="E165">
+        <v>80.64</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -3936,14 +3932,14 @@
       <c r="B166" t="s">
         <v>9</v>
       </c>
-      <c r="C166" s="1">
-        <v>73.5</v>
-      </c>
-      <c r="D166" s="1">
-        <v>65.27</v>
-      </c>
-      <c r="E166" s="1">
-        <v>81.73</v>
+      <c r="C166">
+        <v>73.290000000000006</v>
+      </c>
+      <c r="D166">
+        <v>65.09</v>
+      </c>
+      <c r="E166">
+        <v>81.5</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -3953,14 +3949,14 @@
       <c r="B167" t="s">
         <v>9</v>
       </c>
-      <c r="C167" s="1">
-        <v>25.12</v>
-      </c>
-      <c r="D167" s="1">
-        <v>16.760000000000002</v>
-      </c>
-      <c r="E167" s="1">
-        <v>33.49</v>
+      <c r="C167">
+        <v>25.4</v>
+      </c>
+      <c r="D167">
+        <v>17.04</v>
+      </c>
+      <c r="E167">
+        <v>33.76</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -3970,14 +3966,14 @@
       <c r="B168" t="s">
         <v>9</v>
       </c>
-      <c r="C168" s="1">
-        <v>62.16</v>
-      </c>
-      <c r="D168" s="1">
-        <v>51.49</v>
-      </c>
-      <c r="E168" s="1">
-        <v>72.84</v>
+      <c r="C168">
+        <v>63.24</v>
+      </c>
+      <c r="D168">
+        <v>52.5</v>
+      </c>
+      <c r="E168">
+        <v>73.98</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -3987,14 +3983,14 @@
       <c r="B169" t="s">
         <v>6</v>
       </c>
-      <c r="C169" s="1">
-        <v>3.77</v>
-      </c>
-      <c r="D169" s="1">
-        <v>3.48</v>
-      </c>
-      <c r="E169" s="1">
-        <v>4.0599999999999996</v>
+      <c r="C169">
+        <v>3.75</v>
+      </c>
+      <c r="D169">
+        <v>3.46</v>
+      </c>
+      <c r="E169">
+        <v>4.04</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -4004,14 +4000,14 @@
       <c r="B170" t="s">
         <v>9</v>
       </c>
-      <c r="C170" s="1">
-        <v>12.65</v>
-      </c>
-      <c r="D170" s="1">
-        <v>6.72</v>
-      </c>
-      <c r="E170" s="1">
-        <v>18.579999999999998</v>
+      <c r="C170">
+        <v>12.7</v>
+      </c>
+      <c r="D170">
+        <v>6.76</v>
+      </c>
+      <c r="E170">
+        <v>18.64</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -4021,14 +4017,14 @@
       <c r="B171" t="s">
         <v>9</v>
       </c>
-      <c r="C171" s="1">
-        <v>22.39</v>
-      </c>
-      <c r="D171" s="1">
-        <v>15.87</v>
-      </c>
-      <c r="E171" s="1">
-        <v>28.9</v>
+      <c r="C171">
+        <v>22.33</v>
+      </c>
+      <c r="D171">
+        <v>15.84</v>
+      </c>
+      <c r="E171">
+        <v>28.82</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -4038,13 +4034,13 @@
       <c r="B172" t="s">
         <v>9</v>
       </c>
-      <c r="C172" s="1">
+      <c r="C172">
         <v>24.36</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172">
         <v>0.01</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172">
         <v>51.79</v>
       </c>
     </row>
@@ -4055,13 +4051,13 @@
       <c r="B173" t="s">
         <v>9</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C173">
         <v>6.66</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173">
         <v>0.01</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173">
         <v>20.49</v>
       </c>
     </row>
@@ -4072,13 +4068,13 @@
       <c r="B174" t="s">
         <v>9</v>
       </c>
-      <c r="C174" s="1">
+      <c r="C174">
         <v>28.85</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174">
         <v>1.73</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174">
         <v>55.98</v>
       </c>
     </row>
@@ -4089,13 +4085,13 @@
       <c r="B175" t="s">
         <v>9</v>
       </c>
-      <c r="C175" s="1">
+      <c r="C175">
         <v>6.56</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175">
         <v>0.01</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175">
         <v>21.29</v>
       </c>
     </row>
@@ -4106,13 +4102,13 @@
       <c r="B176" t="s">
         <v>9</v>
       </c>
-      <c r="C176" s="1">
+      <c r="C176">
         <v>19.02</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176">
         <v>0.01</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176">
         <v>47.12</v>
       </c>
     </row>
@@ -4123,13 +4119,13 @@
       <c r="B177" t="s">
         <v>9</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C177">
         <v>23.44</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177">
         <v>0.01</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E177">
         <v>50.09</v>
       </c>
     </row>
@@ -4140,13 +4136,13 @@
       <c r="B178" t="s">
         <v>9</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C178">
         <v>12.28</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178">
         <v>0.01</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178">
         <v>31.05</v>
       </c>
     </row>
@@ -4157,13 +4153,13 @@
       <c r="B179" t="s">
         <v>9</v>
       </c>
-      <c r="C179" s="1">
+      <c r="C179">
         <v>17.62</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D179">
         <v>0.01</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E179">
         <v>44.07</v>
       </c>
     </row>
@@ -4174,13 +4170,13 @@
       <c r="B180" t="s">
         <v>9</v>
       </c>
-      <c r="C180" s="1">
+      <c r="C180">
         <v>14.99</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180">
         <v>0.01</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180">
         <v>34.51</v>
       </c>
     </row>
@@ -4191,13 +4187,13 @@
       <c r="B181" t="s">
         <v>9</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C181">
         <v>28.76</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181">
         <v>1.62</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E181">
         <v>55.91</v>
       </c>
     </row>
@@ -4208,13 +4204,13 @@
       <c r="B182" t="s">
         <v>9</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C182">
         <v>30.69</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182">
         <v>2.54</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182">
         <v>58.84</v>
       </c>
     </row>
@@ -4225,13 +4221,13 @@
       <c r="B183" t="s">
         <v>9</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C183">
         <v>14.97</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183">
         <v>0.01</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E183">
         <v>34.770000000000003</v>
       </c>
     </row>
@@ -4242,13 +4238,13 @@
       <c r="B184" t="s">
         <v>9</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C184">
         <v>18.829999999999998</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184">
         <v>0.01</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E184">
         <v>41.1</v>
       </c>
     </row>
@@ -4259,13 +4255,13 @@
       <c r="B185" t="s">
         <v>9</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C185">
         <v>25.78</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185">
         <v>0.01</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185">
         <v>53.77</v>
       </c>
     </row>
@@ -4276,14 +4272,14 @@
       <c r="B186" t="s">
         <v>9</v>
       </c>
-      <c r="C186" s="1">
-        <v>10.73</v>
-      </c>
-      <c r="D186" s="1">
+      <c r="C186">
+        <v>11.02</v>
+      </c>
+      <c r="D186">
         <v>0.01</v>
       </c>
-      <c r="E186" s="1">
-        <v>30.12</v>
+      <c r="E186">
+        <v>30.41</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -4293,14 +4289,14 @@
       <c r="B187" t="s">
         <v>9</v>
       </c>
-      <c r="C187" s="1">
-        <v>77.37</v>
-      </c>
-      <c r="D187" s="1">
-        <v>58.36</v>
-      </c>
-      <c r="E187" s="1">
-        <v>96.39</v>
+      <c r="C187">
+        <v>78.59</v>
+      </c>
+      <c r="D187">
+        <v>59.32</v>
+      </c>
+      <c r="E187">
+        <v>97.86</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -4310,14 +4306,14 @@
       <c r="B188" t="s">
         <v>6</v>
       </c>
-      <c r="C188" s="1">
-        <v>4.62</v>
-      </c>
-      <c r="D188" s="1">
-        <v>3.92</v>
-      </c>
-      <c r="E188" s="1">
-        <v>5.31</v>
+      <c r="C188">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D188">
+        <v>3.91</v>
+      </c>
+      <c r="E188">
+        <v>5.3</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -4327,14 +4323,14 @@
       <c r="B189" t="s">
         <v>9</v>
       </c>
-      <c r="C189" s="1">
-        <v>43.26</v>
-      </c>
-      <c r="D189" s="1">
-        <v>21.25</v>
-      </c>
-      <c r="E189" s="1">
-        <v>65.260000000000005</v>
+      <c r="C189">
+        <v>43.22</v>
+      </c>
+      <c r="D189">
+        <v>21.34</v>
+      </c>
+      <c r="E189">
+        <v>65.099999999999994</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -4344,13 +4340,13 @@
       <c r="B190" t="s">
         <v>9</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C190">
         <v>61.74</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190">
         <v>50.98</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E190">
         <v>72.5</v>
       </c>
     </row>
@@ -4361,13 +4357,13 @@
       <c r="B191" t="s">
         <v>9</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C191">
         <v>77.58</v>
       </c>
-      <c r="D191" s="1">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="E191" s="1">
+      <c r="D191">
+        <v>67.09</v>
+      </c>
+      <c r="E191">
         <v>88.07</v>
       </c>
     </row>
@@ -4378,13 +4374,13 @@
       <c r="B192" t="s">
         <v>9</v>
       </c>
-      <c r="C192" s="1">
-        <v>75.989999999999995</v>
-      </c>
-      <c r="D192" s="1">
+      <c r="C192">
+        <v>75.98</v>
+      </c>
+      <c r="D192">
         <v>65.260000000000005</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E192">
         <v>86.71</v>
       </c>
     </row>
@@ -4395,13 +4391,13 @@
       <c r="B193" t="s">
         <v>9</v>
       </c>
-      <c r="C193" s="1">
+      <c r="C193">
         <v>59.04</v>
       </c>
-      <c r="D193" s="1">
-        <v>47.24</v>
-      </c>
-      <c r="E193" s="1">
+      <c r="D193">
+        <v>47.23</v>
+      </c>
+      <c r="E193">
         <v>70.84</v>
       </c>
     </row>
@@ -4412,14 +4408,14 @@
       <c r="B194" t="s">
         <v>9</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C194">
         <v>72.66</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D194">
         <v>61.72</v>
       </c>
-      <c r="E194" s="1">
-        <v>83.61</v>
+      <c r="E194">
+        <v>83.59</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -4429,14 +4425,14 @@
       <c r="B195" t="s">
         <v>9</v>
       </c>
-      <c r="C195" s="1">
-        <v>56.88</v>
-      </c>
-      <c r="D195" s="1">
-        <v>45.23</v>
-      </c>
-      <c r="E195" s="1">
-        <v>68.540000000000006</v>
+      <c r="C195">
+        <v>56.86</v>
+      </c>
+      <c r="D195">
+        <v>45.22</v>
+      </c>
+      <c r="E195">
+        <v>68.5</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -4446,14 +4442,14 @@
       <c r="B196" t="s">
         <v>9</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C196">
         <v>28.5</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196">
         <v>18.28</v>
       </c>
-      <c r="E196" s="1">
-        <v>38.729999999999997</v>
+      <c r="E196">
+        <v>38.71</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -4463,14 +4459,14 @@
       <c r="B197" t="s">
         <v>9</v>
       </c>
-      <c r="C197" s="1">
-        <v>7.44</v>
-      </c>
-      <c r="D197" s="1">
+      <c r="C197">
+        <v>7.45</v>
+      </c>
+      <c r="D197">
         <v>1.18</v>
       </c>
-      <c r="E197" s="1">
-        <v>13.7</v>
+      <c r="E197">
+        <v>13.72</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -4480,14 +4476,14 @@
       <c r="B198" t="s">
         <v>9</v>
       </c>
-      <c r="C198" s="1">
-        <v>26.72</v>
-      </c>
-      <c r="D198" s="1">
-        <v>16.739999999999998</v>
-      </c>
-      <c r="E198" s="1">
-        <v>36.700000000000003</v>
+      <c r="C198">
+        <v>26.74</v>
+      </c>
+      <c r="D198">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="E198">
+        <v>36.729999999999997</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -4495,16 +4491,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>9</v>
-      </c>
-      <c r="C199" s="1">
-        <v>36.159999999999997</v>
-      </c>
-      <c r="D199" s="1">
-        <v>26.8</v>
-      </c>
-      <c r="E199" s="1">
-        <v>45.53</v>
+        <v>6</v>
+      </c>
+      <c r="C199">
+        <v>0.4</v>
+      </c>
+      <c r="D199">
+        <v>0.3</v>
+      </c>
+      <c r="E199">
+        <v>0.5</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -4512,16 +4508,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
-      </c>
-      <c r="C200" s="1">
-        <v>12.14</v>
-      </c>
-      <c r="D200" s="1">
-        <v>11.49</v>
-      </c>
-      <c r="E200" s="1">
-        <v>12.8</v>
+        <v>9</v>
+      </c>
+      <c r="C200">
+        <v>1210.8</v>
+      </c>
+      <c r="D200">
+        <v>1145.3399999999999</v>
+      </c>
+      <c r="E200">
+        <v>99.99</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -4531,13 +4527,13 @@
       <c r="B201" t="s">
         <v>9</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C201">
         <v>13.07</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201">
         <v>0.01</v>
       </c>
-      <c r="E201" s="1">
+      <c r="E201">
         <v>27.9</v>
       </c>
     </row>
@@ -4548,13 +4544,13 @@
       <c r="B202" t="s">
         <v>9</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C202">
         <v>6.65</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202">
         <v>0.01</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E202">
         <v>16.670000000000002</v>
       </c>
     </row>
@@ -4565,13 +4561,13 @@
       <c r="B203" t="s">
         <v>9</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203">
         <v>5.44</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203">
         <v>0.01</v>
       </c>
-      <c r="E203" s="1">
+      <c r="E203">
         <v>16.510000000000002</v>
       </c>
     </row>
@@ -4580,16 +4576,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
-      </c>
-      <c r="C204" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="D204" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E204" s="1">
-        <v>2.7</v>
+        <v>6</v>
+      </c>
+      <c r="C204">
+        <v>0.04</v>
+      </c>
+      <c r="D204">
+        <v>-0.01</v>
+      </c>
+      <c r="E204">
+        <v>0.08</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -4597,16 +4593,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
-      </c>
-      <c r="C205" s="1">
-        <v>10.73</v>
-      </c>
-      <c r="D205" s="1">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="E205" s="1">
-        <v>11.58</v>
+        <v>9</v>
+      </c>
+      <c r="C205">
+        <v>1069.6300000000001</v>
+      </c>
+      <c r="D205">
+        <v>984.69</v>
+      </c>
+      <c r="E205">
+        <v>99.99</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -4616,13 +4612,13 @@
       <c r="B206" t="s">
         <v>9</v>
       </c>
-      <c r="C206" s="1">
+      <c r="C206">
         <v>41.91</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D206">
         <v>23.69</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E206">
         <v>60.14</v>
       </c>
     </row>
@@ -4633,14 +4629,14 @@
       <c r="B207" t="s">
         <v>9</v>
       </c>
-      <c r="C207" s="1">
-        <v>20.69</v>
-      </c>
-      <c r="D207" s="1">
-        <v>7.25</v>
-      </c>
-      <c r="E207" s="1">
-        <v>34.14</v>
+      <c r="C207">
+        <v>20.65</v>
+      </c>
+      <c r="D207">
+        <v>7.39</v>
+      </c>
+      <c r="E207">
+        <v>33.909999999999997</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -4650,13 +4646,13 @@
       <c r="B208" t="s">
         <v>9</v>
       </c>
-      <c r="C208" s="1">
+      <c r="C208">
         <v>19.09</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D208">
         <v>5.42</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E208">
         <v>32.75</v>
       </c>
     </row>
@@ -4667,14 +4663,14 @@
       <c r="B209" t="s">
         <v>9</v>
       </c>
-      <c r="C209" s="1">
-        <v>1.26</v>
-      </c>
-      <c r="D209" s="1">
+      <c r="C209">
+        <v>1.53</v>
+      </c>
+      <c r="D209">
         <v>0.01</v>
       </c>
-      <c r="E209" s="1">
-        <v>5.35</v>
+      <c r="E209">
+        <v>5.63</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -4684,14 +4680,14 @@
       <c r="B210" t="s">
         <v>9</v>
       </c>
-      <c r="C210" s="1">
-        <v>81.99</v>
-      </c>
-      <c r="D210" s="1">
-        <v>75.03</v>
-      </c>
-      <c r="E210" s="1">
-        <v>88.95</v>
+      <c r="C210">
+        <v>81.72</v>
+      </c>
+      <c r="D210">
+        <v>74.77</v>
+      </c>
+      <c r="E210">
+        <v>88.68</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -4701,13 +4697,13 @@
       <c r="B211" t="s">
         <v>9</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C211">
         <v>2.19</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D211">
         <v>0.01</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E211">
         <v>4.47</v>
       </c>
     </row>
@@ -4718,14 +4714,14 @@
       <c r="B212" t="s">
         <v>9</v>
       </c>
-      <c r="C212" s="1">
-        <v>3.37</v>
-      </c>
-      <c r="D212" s="1">
+      <c r="C212">
+        <v>3.39</v>
+      </c>
+      <c r="D212">
         <v>0.69</v>
       </c>
-      <c r="E212" s="1">
-        <v>6.05</v>
+      <c r="E212">
+        <v>6.08</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -4733,16 +4729,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
-      </c>
-      <c r="C213" s="1">
-        <v>12.21</v>
-      </c>
-      <c r="D213" s="1">
-        <v>6.32</v>
-      </c>
-      <c r="E213" s="1">
-        <v>18.100000000000001</v>
+        <v>6</v>
+      </c>
+      <c r="C213">
+        <v>0.84</v>
+      </c>
+      <c r="D213">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E213">
+        <v>1.1100000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -4750,16 +4746,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
-      </c>
-      <c r="C214" s="1">
-        <v>269.45999999999998</v>
-      </c>
-      <c r="D214" s="1">
-        <v>261.36</v>
-      </c>
-      <c r="E214" s="1">
-        <v>277.57</v>
+        <v>9</v>
+      </c>
+      <c r="C214">
+        <v>26874.17</v>
+      </c>
+      <c r="D214">
+        <v>26064.02</v>
+      </c>
+      <c r="E214">
+        <v>99.99</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -4767,16 +4763,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C215" s="1">
-        <v>16.98</v>
-      </c>
-      <c r="D215" s="1">
-        <v>9.82</v>
-      </c>
-      <c r="E215" s="1">
-        <v>24.14</v>
+        <v>6</v>
+      </c>
+      <c r="C215">
+        <v>0.17</v>
+      </c>
+      <c r="D215">
+        <v>0.1</v>
+      </c>
+      <c r="E215">
+        <v>0.25</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -4784,16 +4780,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
-      </c>
-      <c r="C216" s="1">
-        <v>2.42</v>
-      </c>
-      <c r="D216" s="1">
-        <v>2.16</v>
-      </c>
-      <c r="E216" s="1">
-        <v>2.68</v>
+        <v>9</v>
+      </c>
+      <c r="C216">
+        <v>241.19</v>
+      </c>
+      <c r="D216">
+        <v>215.18</v>
+      </c>
+      <c r="E216">
+        <v>99.99</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -4803,14 +4799,14 @@
       <c r="B217" t="s">
         <v>9</v>
       </c>
-      <c r="C217" s="1">
-        <v>7.34</v>
-      </c>
-      <c r="D217" s="1">
-        <v>1.95</v>
-      </c>
-      <c r="E217" s="1">
-        <v>12.73</v>
+      <c r="C217">
+        <v>7.37</v>
+      </c>
+      <c r="D217">
+        <v>1.97</v>
+      </c>
+      <c r="E217">
+        <v>12.78</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -4820,14 +4816,14 @@
       <c r="B218" t="s">
         <v>9</v>
       </c>
-      <c r="C218" s="1">
-        <v>47.09</v>
-      </c>
-      <c r="D218" s="1">
-        <v>37.4</v>
-      </c>
-      <c r="E218" s="1">
-        <v>56.78</v>
+      <c r="C218">
+        <v>47.07</v>
+      </c>
+      <c r="D218">
+        <v>37.380000000000003</v>
+      </c>
+      <c r="E218">
+        <v>56.77</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -4837,14 +4833,14 @@
       <c r="B219" t="s">
         <v>9</v>
       </c>
-      <c r="C219" s="1">
-        <v>32.89</v>
-      </c>
-      <c r="D219" s="1">
-        <v>23.75</v>
-      </c>
-      <c r="E219" s="1">
-        <v>42.04</v>
+      <c r="C219">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="D219">
+        <v>23.97</v>
+      </c>
+      <c r="E219">
+        <v>42.28</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -4854,14 +4850,14 @@
       <c r="B220" t="s">
         <v>9</v>
       </c>
-      <c r="C220" s="1">
-        <v>79.48</v>
-      </c>
-      <c r="D220" s="1">
-        <v>71.92</v>
-      </c>
-      <c r="E220" s="1">
-        <v>87.04</v>
+      <c r="C220">
+        <v>79.239999999999995</v>
+      </c>
+      <c r="D220">
+        <v>71.7</v>
+      </c>
+      <c r="E220">
+        <v>86.78</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -4871,14 +4867,14 @@
       <c r="B221" t="s">
         <v>9</v>
       </c>
-      <c r="C221" s="1">
-        <v>32.26</v>
-      </c>
-      <c r="D221" s="1">
-        <v>23.27</v>
-      </c>
-      <c r="E221" s="1">
-        <v>41.25</v>
+      <c r="C221">
+        <v>32.43</v>
+      </c>
+      <c r="D221">
+        <v>23.42</v>
+      </c>
+      <c r="E221">
+        <v>41.45</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -4888,14 +4884,14 @@
       <c r="B222" t="s">
         <v>9</v>
       </c>
-      <c r="C222" s="1">
-        <v>50.07</v>
-      </c>
-      <c r="D222" s="1">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="E222" s="1">
-        <v>59.59</v>
+      <c r="C222">
+        <v>49.89</v>
+      </c>
+      <c r="D222">
+        <v>40.39</v>
+      </c>
+      <c r="E222">
+        <v>59.38</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -4905,13 +4901,13 @@
       <c r="B223" t="s">
         <v>9</v>
       </c>
-      <c r="C223" s="1">
+      <c r="C223">
         <v>35.880000000000003</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223">
         <v>23.84</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E223">
         <v>47.93</v>
       </c>
     </row>
@@ -4922,14 +4918,14 @@
       <c r="B224" t="s">
         <v>9</v>
       </c>
-      <c r="C224" s="1">
-        <v>18.18</v>
-      </c>
-      <c r="D224" s="1">
-        <v>6.99</v>
-      </c>
-      <c r="E224" s="1">
-        <v>29.36</v>
+      <c r="C224">
+        <v>18.22</v>
+      </c>
+      <c r="D224">
+        <v>6.98</v>
+      </c>
+      <c r="E224">
+        <v>29.47</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -4939,14 +4935,14 @@
       <c r="B225" t="s">
         <v>9</v>
       </c>
-      <c r="C225" s="1">
-        <v>5.96</v>
-      </c>
-      <c r="D225" s="1">
+      <c r="C225">
+        <v>6.04</v>
+      </c>
+      <c r="D225">
         <v>0.01</v>
       </c>
-      <c r="E225" s="1">
-        <v>14.06</v>
+      <c r="E225">
+        <v>14.29</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -4956,14 +4952,14 @@
       <c r="B226" t="s">
         <v>9</v>
       </c>
-      <c r="C226" s="1">
-        <v>10.47</v>
-      </c>
-      <c r="D226" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="E226" s="1">
-        <v>19.97</v>
+      <c r="C226">
+        <v>10.45</v>
+      </c>
+      <c r="D226">
+        <v>0.95</v>
+      </c>
+      <c r="E226">
+        <v>19.95</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -4973,14 +4969,14 @@
       <c r="B227" t="s">
         <v>9</v>
       </c>
-      <c r="C227" s="1">
-        <v>13.02</v>
-      </c>
-      <c r="D227" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="E227" s="1">
-        <v>22.94</v>
+      <c r="C227">
+        <v>12.91</v>
+      </c>
+      <c r="D227">
+        <v>3.17</v>
+      </c>
+      <c r="E227">
+        <v>22.65</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -4990,13 +4986,13 @@
       <c r="B228" t="s">
         <v>9</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C228">
         <v>6.02</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D228">
         <v>0.01</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E228">
         <v>14.09</v>
       </c>
     </row>
@@ -5007,13 +5003,13 @@
       <c r="B229" t="s">
         <v>9</v>
       </c>
-      <c r="C229" s="1">
-        <v>9</v>
-      </c>
-      <c r="D229" s="1">
+      <c r="C229">
+        <v>9</v>
+      </c>
+      <c r="D229">
         <v>0.48</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E229">
         <v>17.52</v>
       </c>
     </row>
@@ -5024,13 +5020,13 @@
       <c r="B230" t="s">
         <v>9</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C230">
         <v>35.700000000000003</v>
       </c>
-      <c r="D230" s="1">
+      <c r="D230">
         <v>23.58</v>
       </c>
-      <c r="E230" s="1">
+      <c r="E230">
         <v>47.82</v>
       </c>
     </row>
@@ -5041,14 +5037,14 @@
       <c r="B231" t="s">
         <v>9</v>
       </c>
-      <c r="C231" s="1">
+      <c r="C231">
         <v>14.34</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231">
         <v>4.13</v>
       </c>
-      <c r="E231" s="1">
-        <v>24.55</v>
+      <c r="E231">
+        <v>24.56</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -5058,13 +5054,13 @@
       <c r="B232" t="s">
         <v>9</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C232">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D232">
         <v>0.01</v>
       </c>
-      <c r="E232" s="1">
+      <c r="E232">
         <v>12.63</v>
       </c>
     </row>
@@ -5075,13 +5071,13 @@
       <c r="B233" t="s">
         <v>9</v>
       </c>
-      <c r="C233" s="1">
+      <c r="C233">
         <v>7.86</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D233">
         <v>0.01</v>
       </c>
-      <c r="E233" s="1">
+      <c r="E233">
         <v>15.73</v>
       </c>
     </row>
@@ -5092,13 +5088,13 @@
       <c r="B234" t="s">
         <v>9</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C234">
         <v>8.92</v>
       </c>
-      <c r="D234" s="1">
+      <c r="D234">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E234" s="1">
+      <c r="E234">
         <v>17.260000000000002</v>
       </c>
     </row>
@@ -5109,13 +5105,13 @@
       <c r="B235" t="s">
         <v>9</v>
       </c>
-      <c r="C235" s="1">
+      <c r="C235">
         <v>4.6500000000000004</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235">
         <v>0.01</v>
       </c>
-      <c r="E235" s="1">
+      <c r="E235">
         <v>11.53</v>
       </c>
     </row>
@@ -5126,14 +5122,14 @@
       <c r="B236" t="s">
         <v>9</v>
       </c>
-      <c r="C236" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="D236" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E236" s="1">
-        <v>14.44</v>
+      <c r="C236">
+        <v>7.39</v>
+      </c>
+      <c r="D236">
+        <v>0.05</v>
+      </c>
+      <c r="E236">
+        <v>14.73</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -5143,31 +5139,31 @@
       <c r="B237" t="s">
         <v>9</v>
       </c>
-      <c r="C237" s="1">
-        <v>93.92</v>
-      </c>
-      <c r="D237" s="1">
-        <v>86</v>
-      </c>
-      <c r="E237" s="1">
+      <c r="C237">
+        <v>93.64</v>
+      </c>
+      <c r="D237">
+        <v>85.71</v>
+      </c>
+      <c r="E237">
         <v>99.99</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
       </c>
-      <c r="C238" s="1">
-        <v>80.650000000000006</v>
-      </c>
-      <c r="D238" s="1">
-        <v>69.150000000000006</v>
-      </c>
-      <c r="E238" s="1">
-        <v>92.14</v>
+      <c r="C238">
+        <v>80.930000000000007</v>
+      </c>
+      <c r="D238">
+        <v>69.44</v>
+      </c>
+      <c r="E238">
+        <v>92.43</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -5177,13 +5173,13 @@
       <c r="B239" t="s">
         <v>9</v>
       </c>
-      <c r="C239" s="1">
-        <v>93.89</v>
-      </c>
-      <c r="D239" s="1">
-        <v>86.09</v>
-      </c>
-      <c r="E239" s="1">
+      <c r="C239">
+        <v>93.6</v>
+      </c>
+      <c r="D239">
+        <v>85.8</v>
+      </c>
+      <c r="E239">
         <v>99.99</v>
       </c>
     </row>
@@ -5194,14 +5190,14 @@
       <c r="B240" t="s">
         <v>9</v>
       </c>
-      <c r="C240" s="1">
-        <v>80.64</v>
-      </c>
-      <c r="D240" s="1">
-        <v>69.290000000000006</v>
-      </c>
-      <c r="E240" s="1">
-        <v>92</v>
+      <c r="C240">
+        <v>80.69</v>
+      </c>
+      <c r="D240">
+        <v>69.31</v>
+      </c>
+      <c r="E240">
+        <v>92.06</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -5211,14 +5207,14 @@
       <c r="B241" t="s">
         <v>9</v>
       </c>
-      <c r="C241" s="1">
-        <v>37.42</v>
-      </c>
-      <c r="D241" s="1">
-        <v>25.48</v>
-      </c>
-      <c r="E241" s="1">
-        <v>49.35</v>
+      <c r="C241">
+        <v>37.4</v>
+      </c>
+      <c r="D241">
+        <v>25.47</v>
+      </c>
+      <c r="E241">
+        <v>49.33</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -5228,14 +5224,14 @@
       <c r="B242" t="s">
         <v>9</v>
       </c>
-      <c r="C242" s="1">
-        <v>30.26</v>
-      </c>
-      <c r="D242" s="1">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="E242" s="1">
-        <v>40.68</v>
+      <c r="C242">
+        <v>30.47</v>
+      </c>
+      <c r="D242">
+        <v>20.05</v>
+      </c>
+      <c r="E242">
+        <v>40.9</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -5245,31 +5241,14 @@
       <c r="B243" t="s">
         <v>9</v>
       </c>
-      <c r="C243" s="1">
-        <v>33.340000000000003</v>
-      </c>
-      <c r="D243" s="1">
-        <v>20.63</v>
-      </c>
-      <c r="E243" s="1">
-        <v>46.05</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>248</v>
-      </c>
-      <c r="B244" t="s">
-        <v>9</v>
-      </c>
-      <c r="C244" s="1">
-        <v>14.26</v>
-      </c>
-      <c r="D244" s="1">
-        <v>6.76</v>
-      </c>
-      <c r="E244" s="1">
-        <v>21.77</v>
+      <c r="C243">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="D243">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="E243">
+        <v>45.81</v>
       </c>
     </row>
   </sheetData>

--- a/_national.xlsx
+++ b/_national.xlsx
@@ -1,785 +1,770 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ernest/Documents/GitHub/sudanS3M/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5874EE12-49FE-F246-9EC7-B7DC679B5CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="national" sheetId="1" r:id="rId1"/>
+    <sheet name="national" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="248">
-  <si>
-    <t>Indicator</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Estimator</t>
-  </si>
-  <si>
-    <t>LCL</t>
-  </si>
-  <si>
-    <t>UCL</t>
-  </si>
-  <si>
-    <t>ANC : Gestational age (months) at first ANC visit for most recent pregnancy</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>ANC : Number of ANC visits during most recent pregnancy</t>
-  </si>
-  <si>
-    <t>ANC : Did not attend ANC during most recent pregnancy</t>
-  </si>
-  <si>
-    <t>Proportion</t>
-  </si>
-  <si>
-    <t>ANC : Attended four or more ANC visits during most recent pregnancy</t>
-  </si>
-  <si>
-    <t>ANC : Number of months FeFol tablets consumed during most recent pregnancy</t>
-  </si>
-  <si>
-    <t>ANC : Consumed any FeFol tablets during most recent pregnancy</t>
-  </si>
-  <si>
-    <t>ANC : Consumed FeFol tablets for at least 3 months during most recent pregnancy</t>
-  </si>
-  <si>
-    <t>ANC : Received Vitamin A tablets postpartum (most recent birth)</t>
-  </si>
-  <si>
-    <t>ANC : Experienced night-blindness during most recent pregnancy</t>
-  </si>
-  <si>
-    <t>ANC : Received postnatal care (most recent birth)</t>
-  </si>
-  <si>
-    <t>ANC : Received tetanus vaccination (2 doses)</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Carer aware of growth monitoring program</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Carer aware of CMAM</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Carer received health and nutrition messages</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred TV channel : Sudan TV</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred TV channel : Local State TV</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred TV channel : Blue Nile TV</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred TV channel : Sudania 24</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred TV channel : Umdurman TV</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred radio station : National Radio</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred radio station : Local State Radio</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred radio station : FM100</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred radio station : Community Radio</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred radio station : Darfur Radio</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred medium : Social media</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred medium : Mobile phone SMS</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred medium : Internet</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred medium : Outreach workers</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred medium : Posters</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred medium : Radio</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred medium : TV</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred programs : News</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred programs : Serials</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred programs : Talk shows</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred programs : Children's programs</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred programs : Documentaries</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred time to receive health messages : Morning</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred time to receive health messages : Afternoon</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred time to receive health messages : Evening</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Messages : Preferred time to receive health messages : Night</t>
-  </si>
-  <si>
-    <t>Carer : Mean MUAC (mm)</t>
-  </si>
-  <si>
-    <t>Carer : MUAC &lt; 210 mm (GAM)</t>
-  </si>
-  <si>
-    <t>Carer : MUAC between 185 mm and 210 mm (MAM)</t>
-  </si>
-  <si>
-    <t>Carer : MUAC &lt; 185 mm (SAM)</t>
-  </si>
-  <si>
-    <t>Carer : Mid-upper arm circumference &lt; 230 mm (as in S3M-I)</t>
-  </si>
-  <si>
-    <t>Household : Time to health facility in hours (mean)</t>
-  </si>
-  <si>
-    <t>Household : Time to health facility &lt; 30 minutes</t>
-  </si>
-  <si>
-    <t>Household : Time to health facility &lt; 1 hour</t>
-  </si>
-  <si>
-    <t>Carer : CHW present at health facility within area</t>
-  </si>
-  <si>
-    <t>Carer : Medical assistant present at health facility within area</t>
-  </si>
-  <si>
-    <t>Carer : Village midwife present at health facility within area</t>
-  </si>
-  <si>
-    <t>Carer : Any health worker present at health facility within area</t>
-  </si>
-  <si>
-    <t>Household : Salt iodization : Substandard or no iodization</t>
-  </si>
-  <si>
-    <t>Household : Salt iodization : Any iodization</t>
-  </si>
-  <si>
-    <t>Household : Salt iodization : Adequate (&gt; 15 ppm)</t>
-  </si>
-  <si>
-    <t>Carer : Marital status : Married</t>
-  </si>
-  <si>
-    <t>Carer : Marital status : Single (never married)</t>
-  </si>
-  <si>
-    <t>Carer : Marital status : Divorced</t>
-  </si>
-  <si>
-    <t>Carer : Marital status : Widowed</t>
-  </si>
-  <si>
-    <t>Carer (aged 20 - 24) : Married at or before 15 years of age</t>
-  </si>
-  <si>
-    <t>Carer (aged 20 - 24) : Married at or before 18 years of age</t>
-  </si>
-  <si>
-    <t>Carer (aged 20 - 24) : Carers first giving birth between 15 and 19 years of age</t>
-  </si>
-  <si>
-    <t>Carer : Age at first parity</t>
-  </si>
-  <si>
-    <t>Carer : Carer is circumcised (FGM) : All ages</t>
-  </si>
-  <si>
-    <t>Carer : Carer is circumcised (FGM) : 15 - 49 years (MICS compatible)</t>
-  </si>
-  <si>
-    <t>Carer : Carer is circumcised (FGM) : 15 - 19 years of age</t>
-  </si>
-  <si>
-    <t>Carer : Carer is circumcised (FGM) : 20 - 24 years of age</t>
-  </si>
-  <si>
-    <t>Carer : Carer is circumcised (FGM) : 25 - 29 years of age</t>
-  </si>
-  <si>
-    <t>Carer : Carer is circumcised (FGM) : 30 - 34 years of age</t>
-  </si>
-  <si>
-    <t>Carer : Carer is circumcised (FGM) : 35 - 39 years of age</t>
-  </si>
-  <si>
-    <t>Carer : Carer is circumcised (FGM) : 40 - 44 years of age</t>
-  </si>
-  <si>
-    <t>Carer : Carer is circumcised (FGM) : 45 - 49 years of age</t>
-  </si>
-  <si>
-    <t>Carer : Carer is circumcised (FGM) : 50 years or older</t>
-  </si>
-  <si>
-    <t>Danger Signs : Number of danger signs identified by carer (max = 5)</t>
-  </si>
-  <si>
-    <t>Danger Signs : Carer identified not feeding as danger sign</t>
-  </si>
-  <si>
-    <t>Danger Signs : Carer identified convulsions as a danger sign</t>
-  </si>
-  <si>
-    <t>Danger Signs : Carer identified vomiting as a danger sign</t>
-  </si>
-  <si>
-    <t>Danger Signs : Carer identified bloody diarrhoea as a danger sign</t>
-  </si>
-  <si>
-    <t>Danger Signs : Carer identified fever as a danger sign</t>
-  </si>
-  <si>
-    <t>Danger Signs : Carer identified loss of consciousness as a danger sign</t>
-  </si>
-  <si>
-    <t>Danger Signs : Carer identified becoming progressively sicker as a danger sign</t>
-  </si>
-  <si>
-    <t>Danger Signs : Carer identified rapid / difficulty breathing as a danger sign</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes grains, white roots and tubers, and plantains</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes green leafy vegetables</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes vitamin A-rich fruits and vegetables</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes other fruits and vegetables</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes organ meat</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes meat, poultry and fish</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes eggs</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes legumes and pulses</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes nuts and seeds</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes dairy</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Women's Dietary Diversity Score</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Minimum Dietary Diversity - Women</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Protein-rich animal sources</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Protein-rich plant sources</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Protein-rich (any source)</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes plant sources of vitamin A</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes animal sources of vitamin A</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes any source of vitamin A</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes iron-rich foods</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes calcium-rich foods</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes zinc-rich foods</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes vitamin B1-rich foods</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes vitamin B2-rich foods</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes vitamin B3-rich foods</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes vitamin B6-rich foods</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumes vitamin B12-rich foods</t>
-  </si>
-  <si>
-    <t>Carer : Diet : Consumed vitamin B1 / B2 / B3 / B6 / B12-rich foods</t>
-  </si>
-  <si>
-    <t>Child : Child has a birth certificate / birth has been registered</t>
-  </si>
-  <si>
-    <t>Child : Slept under ITN on previous night</t>
-  </si>
-  <si>
-    <t>Child : Mean MUAC (mm)</t>
-  </si>
-  <si>
-    <t>Child : MUAC &lt; 125 mm (GAM)</t>
-  </si>
-  <si>
-    <t>Child : MUAC between 115 mm and 125 mm (MAM)</t>
-  </si>
-  <si>
-    <t>Child : MUAC &lt; 115 mm (SAM)</t>
-  </si>
-  <si>
-    <t>Child : Mean HAZ</t>
-  </si>
-  <si>
-    <t>Child : HAZ &lt; -2</t>
-  </si>
-  <si>
-    <t>Child : HAZ between -3 and -2</t>
-  </si>
-  <si>
-    <t>Child : HAZ &lt; - 3</t>
-  </si>
-  <si>
-    <t>Child : Mean WAZ</t>
-  </si>
-  <si>
-    <t>Child : WAZ &lt; -2</t>
-  </si>
-  <si>
-    <t>Child : WAZ between -3 and -2</t>
-  </si>
-  <si>
-    <t>Child : WAZ &lt; - 3</t>
-  </si>
-  <si>
-    <t>Child : Mean WHZ</t>
-  </si>
-  <si>
-    <t>Child : WHZ &lt; -2</t>
-  </si>
-  <si>
-    <t>Child : WHZ between -3 and -2</t>
-  </si>
-  <si>
-    <t>Child : WHZ &lt; -3</t>
-  </si>
-  <si>
-    <t>Child : Oedema</t>
-  </si>
-  <si>
-    <t>Child : Overweight (WHZ &gt; 2)</t>
-  </si>
-  <si>
-    <t>Child : Obese (WHZ &gt; 3)</t>
-  </si>
-  <si>
-    <t>Child : Period prevalence of diarrhoea</t>
-  </si>
-  <si>
-    <t>Child : Period prevalence of ARI</t>
-  </si>
-  <si>
-    <t>Child : Period prevalence of fever</t>
-  </si>
-  <si>
-    <t>Child : Visited health facility for diarrhoea</t>
-  </si>
-  <si>
-    <t>Child : Visited health facility for ARI</t>
-  </si>
-  <si>
-    <t>Child : Provided treatment for ARI</t>
-  </si>
-  <si>
-    <t>Child : Provided treatment for diarrhoea: ORS only</t>
-  </si>
-  <si>
-    <t>Child : Provided treatment for diarrhoea: ORS with zinc</t>
-  </si>
-  <si>
-    <t>Child : Provided treatment for diarrhoea: Any ORS</t>
-  </si>
-  <si>
-    <t>Child : Provided treatment for diarrhoea: Zinc only</t>
-  </si>
-  <si>
-    <t>Child : Provided treatment for diarrhoea: Don't know</t>
-  </si>
-  <si>
-    <t>Child : Circumcised (FGM) : All ages</t>
-  </si>
-  <si>
-    <t>Child : Circumcised (FGM) : 14 years of age</t>
-  </si>
-  <si>
-    <t>LOESS</t>
-  </si>
-  <si>
-    <t>Child : Circumcised (FGM) : below 8 years of age</t>
-  </si>
-  <si>
-    <t>Education : Access to preschool education</t>
-  </si>
-  <si>
-    <t>Education : Access to basic education</t>
-  </si>
-  <si>
-    <t>Education : Access to education (preschool or basic)</t>
-  </si>
-  <si>
-    <t>Education : Reason for not attending school : Mixed education</t>
-  </si>
-  <si>
-    <t>Education : Reason for not attending school : No schools</t>
-  </si>
-  <si>
-    <t>Education : Reason for not attending school : No toilets or water in school</t>
-  </si>
-  <si>
-    <t>Education : Reason for not attending school : Illness or disability</t>
-  </si>
-  <si>
-    <t>Education : Reason for not attending school : School is too far from home</t>
-  </si>
-  <si>
-    <t>Education : Reason for not attending school : Child is working</t>
-  </si>
-  <si>
-    <t>Education : Reason for not attending school : Early marriage</t>
-  </si>
-  <si>
-    <t>Education : Reason for not attending school : School fees</t>
-  </si>
-  <si>
-    <t>Education : Reason for not attending school : Displacement</t>
-  </si>
-  <si>
-    <t>Education : Reason for not attending school : Other</t>
-  </si>
-  <si>
-    <t>Education : Ever attended school</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Programming : MUAC screening in past month</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Programming : MUAC screening in past three months</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Programming : GM / GMP coverage</t>
-  </si>
-  <si>
-    <t>Health &amp; Nutrition Programming : IYCF counselling / messaging coverage</t>
-  </si>
-  <si>
-    <t>Child : Child has health insurance</t>
-  </si>
-  <si>
-    <t>IYCF : Exclusive breastfeeding</t>
-  </si>
-  <si>
-    <t>IYCF : Age-appropriate continuing breastfeeding</t>
-  </si>
-  <si>
-    <t>IYCF : Age-appropriate dietary diversity</t>
-  </si>
-  <si>
-    <t>IYCF : Age-appropriate meal frequency</t>
-  </si>
-  <si>
-    <t>IYCF : Infant and child feeding index (ICFI)</t>
-  </si>
-  <si>
-    <t>IYCF : Good IYCF (children aged 6 months or older)</t>
-  </si>
-  <si>
-    <t>IYCF : Good IYCF (children aged between 0 and 24 months)</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Protein-rich animal sources</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Protein-rich plant sources</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Protein-rich (any source)</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Consumes plant sources of vitamin A</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Consumes animal sources of vitamin A</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Consumes any source of vitamin A</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Consumes iron-rich foods</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Consumes calcium-rich foods</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Consumes zinc-rich foods</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Consumes vitamin B1-rich foods</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Consumes vitamin B2-rich foods</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Consumes vitamin B3-rich foods</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Consumes vitamin B6-rich foods</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Consumes vitamin B12-rich foods</t>
-  </si>
-  <si>
-    <t>IYCF : Diet : Consumed vitamin B1 / B2 / B3 / B6 / B12-rich foods</t>
-  </si>
-  <si>
-    <t>IYCF : Introduction of solid, semi-solid or soft foods for children 6-8 months</t>
-  </si>
-  <si>
-    <t>IYCF : ICFI (children aged 6-8 months)</t>
-  </si>
-  <si>
-    <t>IYCF : Good IYCF (children aged 6-8 months)</t>
-  </si>
-  <si>
-    <t>EPI : Vaccine card available / seen for children below 24 months</t>
-  </si>
-  <si>
-    <t>EPI : BCG coverage for children below 12 months</t>
-  </si>
-  <si>
-    <t>EPI : First dose pentavalent vaccine coverage for children below 12 months</t>
-  </si>
-  <si>
-    <t>EPI : Third dose pentavelent vaccine coverage for children below 12 months</t>
-  </si>
-  <si>
-    <t>EPI : First dose OPV coverage for children below 12 months</t>
-  </si>
-  <si>
-    <t>EPI : Third dose OPV coverage for children below 12 months</t>
-  </si>
-  <si>
-    <t>EPI : First dose measles vaccine for children below 12 months</t>
-  </si>
-  <si>
-    <t>EPI : Full EPI coverage for children below 12 months (without rotavirus vaccine)</t>
-  </si>
-  <si>
-    <t>Child : Vitamin A supplementation coverage</t>
-  </si>
-  <si>
-    <t>Carer : Haemoglobin (g/dl)</t>
-  </si>
-  <si>
-    <t>Carer : Any anaemia</t>
-  </si>
-  <si>
-    <t>Carer : Mild anaemia</t>
-  </si>
-  <si>
-    <t>Carer : Moderate anaemia</t>
-  </si>
-  <si>
-    <t>Carer : Severe anaemia</t>
-  </si>
-  <si>
-    <t>Child : Haemoglobin (g/dl)</t>
-  </si>
-  <si>
-    <t>Child : Any anaemia</t>
-  </si>
-  <si>
-    <t>Child : Mild anaemia</t>
-  </si>
-  <si>
-    <t>Child : Moderate anaemia</t>
-  </si>
-  <si>
-    <t>Child : Severe anaemia</t>
-  </si>
-  <si>
-    <t>Household : CSI = 0</t>
-  </si>
-  <si>
-    <t>Household : Low CSI</t>
-  </si>
-  <si>
-    <t>Household : Moderate CSI</t>
-  </si>
-  <si>
-    <t>Household : High CSI</t>
-  </si>
-  <si>
-    <t>PLW carers / other PLW : MUAC</t>
-  </si>
-  <si>
-    <t>PLW carers / other PLW : MUAC &lt; 230 mm</t>
-  </si>
-  <si>
-    <t>Carer : WASH : Number of appropriate hand-washing events identified</t>
-  </si>
-  <si>
-    <t>Carer : WASH : Identified five key hand-washing times</t>
-  </si>
-  <si>
-    <t>Carer : WASH : Hand-washing : After defecation</t>
-  </si>
-  <si>
-    <t>Carer : WASH : Hand-washing : After cleaning child</t>
-  </si>
-  <si>
-    <t>Carer : WASH : Hand-washing : Before eating</t>
-  </si>
-  <si>
-    <t>Carer : WASH : Hand-washing : Before feeding child</t>
-  </si>
-  <si>
-    <t>Carer : WASH : Hand-washing : Before preparing food</t>
-  </si>
-  <si>
-    <t>WASH : Public pipe network in house</t>
-  </si>
-  <si>
-    <t>WASH : Public pipe network in yard</t>
-  </si>
-  <si>
-    <t>WASH : Public water pipe</t>
-  </si>
-  <si>
-    <t>WASH : Protected ground water</t>
-  </si>
-  <si>
-    <t>WASH : Protected well</t>
-  </si>
-  <si>
-    <t>WASH : Filtered surface water</t>
-  </si>
-  <si>
-    <t>WASH : Water transferred by car from improved sources</t>
-  </si>
-  <si>
-    <t>WASH : Public pipe network in house within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH : Public pipe network in yard within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH : Public water pipe within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH : Protected ground water within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH : Protected well within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH : Filtered surface water within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH : Water transferred by car from improved sources within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH : Uses improved drinking water sources</t>
-  </si>
-  <si>
-    <t>WASH : Improved drinking water source within 30 minutes</t>
-  </si>
-  <si>
-    <t>WASH : Uses improved toilet facilities</t>
-  </si>
-  <si>
-    <t>WASH : Uses non-shared improved toilet facilities</t>
-  </si>
-  <si>
-    <t>WASH : Open defecation</t>
-  </si>
-  <si>
-    <t>WASH : Has basic hand-washing facilities</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+  <si>
+    <t xml:space="preserve">Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC : Gestational age (months) at first ANC visit for most recent pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC : Number of ANC visits during most recent pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC : Did not attend ANC during most recent pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proportion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC : Attended four or more ANC visits during most recent pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC : Number of months FeFol tablets consumed during most recent pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC : Consumed any FeFol tablets during most recent pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC : Consumed FeFol tablets for at least 3 months during most recent pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC : Received Vitamin A tablets postpartum (most recent birth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC : Experienced night-blindness during most recent pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC : Received postnatal care (most recent birth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANC : Received tetanus vaccination (2 doses)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Carer aware of growth monitoring program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Carer aware of CMAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Carer received health and nutrition messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred TV channel : Sudan TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred TV channel : Local State TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred TV channel : Blue Nile TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred TV channel : Sudania 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred TV channel : Umdurman TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred radio station : National Radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred radio station : Local State Radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred radio station : FM100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred radio station : Community Radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred radio station : Darfur Radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred medium : Social media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred medium : Mobile phone SMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred medium : Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred medium : Outreach workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred medium : Posters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred medium : Radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred medium : TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred programs : News</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred programs : Serials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred programs : Talk shows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred programs : Children's programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred programs : Documentaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred time to receive health messages : Morning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred time to receive health messages : Afternoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred time to receive health messages : Evening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Messages : Preferred time to receive health messages : Night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Mean MUAC (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : MUAC &lt; 210 mm (GAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : MUAC between 185 mm and 210 mm (MAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : MUAC &lt; 185 mm (SAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Mid-upper arm circumference &lt; 230 mm (as in S3M-I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household : Time to health facility in hours (mean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household : Time to health facility &lt; 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household : Time to health facility &lt; 1 hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : CHW present at health facility within area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Medical assistant present at health facility within area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Village midwife present at health facility within area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Any health worker present at health facility within area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household : Salt iodization : Substandard or no iodization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household : Salt iodization : Any iodization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household : Salt iodization : Adequate (&gt; 15 ppm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Marital status : Married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Marital status : Single (never married)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Marital status : Divorced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Marital status : Widowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer (aged 20 - 24) : Married at or before 15 years of age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer (aged 20 - 24) : Married at or before 18 years of age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer (aged 20 - 24) : Carers first giving birth between 15 and 19 years of age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Age at first parity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Carer is circumcised (FGM) : All ages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Carer is circumcised (FGM) : 15 - 49 years (MICS compatible)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Carer is circumcised (FGM) : 15 - 19 years of age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Carer is circumcised (FGM) : 20 - 24 years of age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Carer is circumcised (FGM) : 25 - 29 years of age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Carer is circumcised (FGM) : 30 - 34 years of age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Carer is circumcised (FGM) : 35 - 39 years of age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Carer is circumcised (FGM) : 40 - 44 years of age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Carer is circumcised (FGM) : 45 - 49 years of age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Carer is circumcised (FGM) : 50 years or older</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danger Signs : Number of danger signs identified by carer (max = 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danger Signs : Carer identified not feeding as danger sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danger Signs : Carer identified convulsions as a danger sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danger Signs : Carer identified vomiting as a danger sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danger Signs : Carer identified bloody diarrhoea as a danger sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danger Signs : Carer identified fever as a danger sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danger Signs : Carer identified loss of consciousness as a danger sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danger Signs : Carer identified becoming progressively sicker as a danger sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danger Signs : Carer identified rapid / difficulty breathing as a danger sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes grains, white roots and tubers, and plantains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes green leafy vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes vitamin A-rich fruits and vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes other fruits and vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes organ meat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes meat, poultry and fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes legumes and pulses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes nuts and seeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes dairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Women's Dietary Diversity Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Minimum Dietary Diversity - Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Protein-rich animal sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Protein-rich plant sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Protein-rich (any source)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes plant sources of vitamin A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes animal sources of vitamin A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes any source of vitamin A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes iron-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes calcium-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes zinc-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes vitamin B1-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes vitamin B2-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes vitamin B3-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes vitamin B6-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumes vitamin B12-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Diet : Consumed vitamin B1 / B2 / B3 / B6 / B12-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Child has a birth certificate / birth has been registered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Slept under ITN on previous night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Mean MUAC (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : MUAC &lt; 125 mm (GAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : MUAC between 115 mm and 125 mm (MAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : MUAC &lt; 115 mm (SAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Mean HAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : HAZ &lt; -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : HAZ between -3 and -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : HAZ &lt; - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Mean WAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : WAZ &lt; -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : WAZ between -3 and -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : WAZ &lt; - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Mean WHZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : WHZ &lt; -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : WHZ between -3 and -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : WHZ &lt; -3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Oedema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Overweight (WHZ &gt; 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Obese (WHZ &gt; 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Period prevalence of diarrhoea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Period prevalence of ARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Period prevalence of fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Visited health facility for diarrhoea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Visited health facility for ARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Provided treatment for ARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Provided treatment for diarrhoea: ORS only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Provided treatment for diarrhoea: ORS with zinc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Provided treatment for diarrhoea: Any ORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Provided treatment for diarrhoea: Zinc only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Provided treatment for diarrhoea: Don't know</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Circumcised (FGM) : All ages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Circumcised (FGM) : 14 years of age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Circumcised (FGM) : below 8 years of age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Access to preschool education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Access to basic education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Access to education (preschool or basic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Reason for not attending school : Mixed education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Reason for not attending school : No schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Reason for not attending school : No toilets or water in school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Reason for not attending school : Illness or disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Reason for not attending school : School is too far from home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Reason for not attending school : Child is working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Reason for not attending school : Early marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Reason for not attending school : School fees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Reason for not attending school : Displacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Reason for not attending school : Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education : Ever attended school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Programming : MUAC screening in past month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Programming : MUAC screening in past three months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Programming : GM / GMP coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health &amp; Nutrition Programming : IYCF counselling / messaging coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Child has health insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Exclusive breastfeeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Age-appropriate continuing breastfeeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Age-appropriate dietary diversity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Age-appropriate meal frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Infant and child feeding index (ICFI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Good IYCF (children aged 6 months or older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Good IYCF (children aged between 0 and 24 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Protein-rich animal sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Protein-rich plant sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Protein-rich (any source)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Consumes plant sources of vitamin A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Consumes animal sources of vitamin A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Consumes any source of vitamin A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Consumes iron-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Consumes calcium-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Consumes zinc-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Consumes vitamin B1-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Consumes vitamin B2-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Consumes vitamin B3-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Consumes vitamin B6-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Consumes vitamin B12-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Diet : Consumed vitamin B1 / B2 / B3 / B6 / B12-rich foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Introduction of solid, semi-solid or soft foods for children 6-8 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : ICFI (children aged 6-8 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IYCF : Good IYCF (children aged 6-8 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPI : Vaccine card available / seen for children below 24 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPI : BCG coverage for children below 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPI : First dose pentavalent vaccine coverage for children below 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPI : Third dose pentavelent vaccine coverage for children below 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPI : First dose OPV coverage for children below 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPI : Third dose OPV coverage for children below 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPI : First dose measles vaccine for children below 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPI : Full EPI coverage for children below 12 months (without rotavirus vaccine)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Vitamin A supplementation coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Haemoglobin (g/dl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Any anaemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Mild anaemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Moderate anaemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : Severe anaemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Haemoglobin (g/dl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Any anaemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Mild anaemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Moderate anaemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child : Severe anaemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household : CSI = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household : Low CSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household : Moderate CSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household : High CSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLW carers / other PLW : MUAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLW carers / other PLW : MUAC &lt; 230 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : WASH : Number of appropriate hand-washing events identified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : WASH : Identified five key hand-washing times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : WASH : Hand-washing : After defecation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : WASH : Hand-washing : After cleaning child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : WASH : Hand-washing : Before eating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : WASH : Hand-washing : Before feeding child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carer : WASH : Hand-washing : Before preparing food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Public pipe network in house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Public pipe network in yard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Public water pipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Protected ground water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Protected well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Filtered surface water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Water transferred by car from improved sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Public pipe network in house within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Public pipe network in yard within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Public water pipe within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Protected ground water within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Protected well within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Filtered surface water within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Water transferred by car from improved sources within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Uses improved drinking water sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Improved drinking water source within 30 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Uses improved toilet facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Uses non-shared improved toilet facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Open defecation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH : Has basic hand-washing facilities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -807,23 +792,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1105,4154 +1080,4146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E243"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>3.44</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>3.1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>3.79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>3.77</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>3.29</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>4.26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>16.2</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>8.93</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>23.48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>51.24</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>42.27</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>60.21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>2.4</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>2.02</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>2.79</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
-        <v>71.459999999999994</v>
-      </c>
-      <c r="D7">
+      <c r="C7" t="n">
+        <v>71.46</v>
+      </c>
+      <c r="D7" t="n">
         <v>63.21</v>
       </c>
-      <c r="E7">
-        <v>79.709999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="n">
+        <v>79.71</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>44.98</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>36.35</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>53.62</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>22.39</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>15.14</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>29.65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>13.04</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>7.24</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>18.84</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="D11">
+      <c r="C11" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="D11" t="n">
         <v>25.06</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>43.34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>67.34</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>58.54</v>
       </c>
-      <c r="E12">
-        <v>76.150000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="n">
+        <v>76.15</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>42.23</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>32.36</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>52.09</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>53.74</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>43.38</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>64.09</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>46.75</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>35.81</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>57.68</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>7.87</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>2.87</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>12.88</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>1.24</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>0.01</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>2.99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>5.39</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>1.81</v>
       </c>
-      <c r="E18">
-        <v>8.9600000000000009</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="n">
+        <v>8.96</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>1.32</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>0.01</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>3.16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>1.37</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0.01</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>3.09</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
-        <v>8.7200000000000006</v>
-      </c>
-      <c r="D21">
+      <c r="C21" t="n">
+        <v>8.72</v>
+      </c>
+      <c r="D21" t="n">
         <v>3.56</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>13.88</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>6.58</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>1.89</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>11.27</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>1.59</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>0.01</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>3.37</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D24">
+      <c r="C24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.01</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>4.71</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>0.83</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>0.01</v>
       </c>
-      <c r="E25">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>7.6</v>
       </c>
-      <c r="D26">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="E26">
+      <c r="D26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E26" t="n">
         <v>12.92</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>7.21</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>1.56</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>12.86</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>2.46</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>0.01</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>5.13</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>34.65</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>24.49</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>44.81</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>2.64</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>0.01</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>5.74</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>21.2</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>13</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>29.39</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" t="s">
         <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>19.73</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>11.4</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>28.06</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C33">
-        <v>18.670000000000002</v>
-      </c>
-      <c r="D33">
+      <c r="C33" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="D33" t="n">
         <v>11.01</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>26.33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" t="s">
         <v>39</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>9.07</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>3.55</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>14.58</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>13.07</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>7.32</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>18.82</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" t="s">
         <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>6.52</v>
       </c>
-      <c r="D36">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="E36">
+      <c r="D36" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E36" t="n">
         <v>10.6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>0.97</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>0.01</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>2.74</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="D38">
+      <c r="C38" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="D38" t="n">
         <v>9.94</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>23.75</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" t="s">
         <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
-      <c r="C39">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="D39">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="E39">
+      <c r="C39" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="E39" t="n">
         <v>15.38</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" t="s">
         <v>45</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>17.28</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>10.23</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>24.34</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>7.3</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>2.85</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>11.75</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" t="s">
         <v>47</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
-      <c r="C42">
-        <v>271.64999999999998</v>
-      </c>
-      <c r="D42">
+      <c r="C42" t="n">
+        <v>271.65</v>
+      </c>
+      <c r="D42" t="n">
         <v>264.12</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>279.19</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43" t="s">
         <v>9</v>
       </c>
-      <c r="C43">
-        <v>8.6300000000000008</v>
-      </c>
-      <c r="D43">
+      <c r="C43" t="n">
+        <v>8.63</v>
+      </c>
+      <c r="D43" t="n">
         <v>3.66</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>13.6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" t="s">
         <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>6.36</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>1.03</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>11.69</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" t="s">
         <v>50</v>
       </c>
       <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="C45">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="D45">
+      <c r="C45" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D45" t="n">
         <v>0.08</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>4.28</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" t="s">
         <v>51</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
-      <c r="C46">
-        <v>16.309999999999999</v>
-      </c>
-      <c r="D46">
+      <c r="C46" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="D46" t="n">
         <v>10.38</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>22.24</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>0.86</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>0.43</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>1.29</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" t="s">
         <v>53</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>63.99</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>47.97</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>80.02</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" t="s">
         <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
       </c>
-      <c r="C49">
-        <v>80.239999999999995</v>
-      </c>
-      <c r="D49">
+      <c r="C49" t="n">
+        <v>80.24</v>
+      </c>
+      <c r="D49" t="n">
         <v>66.42</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>94.05</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" t="s">
         <v>55</v>
       </c>
       <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>33.78</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>19.22</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>48.33</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" t="s">
         <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>11.79</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>1.92</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>21.65</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" t="s">
         <v>57</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
-      <c r="C52">
-        <v>20.350000000000001</v>
-      </c>
-      <c r="D52">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="E52">
-        <v>32.479999999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C52" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8.22</v>
+      </c>
+      <c r="E52" t="n">
+        <v>32.48</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
         <v>58</v>
       </c>
       <c r="B53" t="s">
         <v>9</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>45.16</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>28.64</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>61.68</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" t="s">
         <v>59</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>96.8</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>93.43</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" t="s">
         <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>14.56</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>6.83</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>22.28</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" t="s">
         <v>61</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>3.2</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>0.01</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>6.49</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" t="s">
         <v>62</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>98.09</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>95.64</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" t="s">
         <v>63</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>0.23</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>0.01</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>0.92</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" t="s">
         <v>64</v>
       </c>
       <c r="B59" t="s">
         <v>9</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>0.89</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>0.01</v>
       </c>
-      <c r="E59">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E59" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>0.63</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>0.01</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>1.92</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" t="s">
         <v>66</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>26.55</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>19.32</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>33.78</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" t="s">
         <v>67</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>60.19</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>52.05</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>68.33</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" t="s">
         <v>68</v>
       </c>
       <c r="B63" t="s">
         <v>9</v>
       </c>
-      <c r="C63">
-        <v>72.010000000000005</v>
-      </c>
-      <c r="D63">
+      <c r="C63" t="n">
+        <v>72.01</v>
+      </c>
+      <c r="D63" t="n">
         <v>59.32</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>84.69</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" t="s">
         <v>69</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
-      <c r="C64">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D64">
+      <c r="C64" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="D64" t="n">
         <v>18.7</v>
       </c>
-      <c r="E64">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E64" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
         <v>70</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>83.87</v>
       </c>
-      <c r="D65">
-        <v>73.650000000000006</v>
-      </c>
-      <c r="E65">
+      <c r="D65" t="n">
+        <v>73.65</v>
+      </c>
+      <c r="E65" t="n">
         <v>94.09</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" t="s">
         <v>71</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>83.91</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>73.66</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>94.15</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" t="s">
         <v>72</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>80.98</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>55.65</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" t="s">
         <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>83.23</v>
       </c>
-      <c r="D68">
-        <v>69.849999999999994</v>
-      </c>
-      <c r="E68">
+      <c r="D68" t="n">
+        <v>69.85</v>
+      </c>
+      <c r="E68" t="n">
         <v>96.61</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69" t="s">
         <v>74</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>83.41</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>71.75</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>95.07</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" t="s">
         <v>75</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>85.39</v>
       </c>
-      <c r="D70">
-        <v>72.650000000000006</v>
-      </c>
-      <c r="E70">
+      <c r="D70" t="n">
+        <v>72.65</v>
+      </c>
+      <c r="E70" t="n">
         <v>98.13</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71" t="s">
         <v>76</v>
       </c>
       <c r="B71" t="s">
         <v>9</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>85.37</v>
       </c>
-      <c r="D71">
-        <v>69.819999999999993</v>
-      </c>
-      <c r="E71">
+      <c r="D71" t="n">
+        <v>69.82</v>
+      </c>
+      <c r="E71" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" t="s">
         <v>77</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>85.76</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>64.34</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" t="s">
         <v>78</v>
       </c>
       <c r="B73" t="s">
         <v>9</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>85.22</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>49.25</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" t="s">
         <v>79</v>
       </c>
       <c r="B74" t="s">
         <v>9</v>
       </c>
-      <c r="C74">
-        <v>65.319999999999993</v>
-      </c>
-      <c r="D74">
+      <c r="C74" t="n">
+        <v>65.32</v>
+      </c>
+      <c r="D74" t="n">
         <v>29.58</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" t="s">
         <v>80</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>1.67</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>1.51</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>1.83</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" t="s">
         <v>81</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>12.27</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>5.93</v>
       </c>
-      <c r="E76">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E76" t="n">
+        <v>18.6</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="s">
         <v>82</v>
       </c>
       <c r="B77" t="s">
         <v>9</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>7.4</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>2.69</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>12.1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78" t="s">
         <v>83</v>
       </c>
       <c r="B78" t="s">
         <v>9</v>
       </c>
-      <c r="C78">
-        <v>33.119999999999997</v>
-      </c>
-      <c r="D78">
+      <c r="C78" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="D78" t="n">
         <v>24.3</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>41.95</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79" t="s">
         <v>84</v>
       </c>
       <c r="B79" t="s">
         <v>9</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>31.17</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>22.64</v>
       </c>
-      <c r="E79">
-        <v>39.700000000000003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E79" t="n">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" t="s">
         <v>85</v>
       </c>
       <c r="B80" t="s">
         <v>9</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>81.84</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>75.5</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>88.19</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" t="s">
         <v>86</v>
       </c>
       <c r="B81" t="s">
         <v>9</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>4.16</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>0.66</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>7.66</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" t="s">
         <v>87</v>
       </c>
       <c r="B82" t="s">
         <v>9</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>14.57</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>8.02</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>21.11</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" t="s">
         <v>88</v>
       </c>
       <c r="B83" t="s">
         <v>9</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>26.97</v>
       </c>
-      <c r="D83">
-        <v>19.010000000000002</v>
-      </c>
-      <c r="E83">
+      <c r="D83" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="E83" t="n">
         <v>34.94</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="A84" t="s">
         <v>89</v>
       </c>
       <c r="B84" t="s">
         <v>9</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>96.87</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>93.4</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85" t="s">
         <v>90</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>29.33</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>21.13</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>37.54</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="A86" t="s">
         <v>91</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
-      <c r="C86">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="D86">
+      <c r="C86" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="D86" t="n">
         <v>3.62</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>13.48</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" t="s">
         <v>92</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>17.86</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>10.29</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>25.44</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88" t="s">
         <v>93</v>
       </c>
       <c r="B88" t="s">
         <v>9</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>2.46</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>0.01</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>4.96</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" t="s">
         <v>94</v>
       </c>
       <c r="B89" t="s">
         <v>9</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>52.28</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>43.19</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>61.37</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90" t="s">
         <v>95</v>
       </c>
       <c r="B90" t="s">
         <v>9</v>
       </c>
-      <c r="C90">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="D90">
+      <c r="C90" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="D90" t="n">
         <v>1.37</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>8.25</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" t="s">
         <v>96</v>
       </c>
       <c r="B91" t="s">
         <v>9</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>32.67</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>24.16</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>41.18</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92" t="s">
         <v>97</v>
       </c>
       <c r="B92" t="s">
         <v>9</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>3.39</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>0.01</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>7.82</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="A93" t="s">
         <v>98</v>
       </c>
       <c r="B93" t="s">
         <v>9</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>47.7</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>37.07</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>58.33</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="A94" t="s">
         <v>99</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>2.95</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>2.7</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>3.19</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="A95" t="s">
         <v>100</v>
       </c>
       <c r="B95" t="s">
         <v>9</v>
       </c>
-      <c r="C95">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="D95">
+      <c r="C95" t="n">
+        <v>9.87</v>
+      </c>
+      <c r="D95" t="n">
         <v>4.41</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>15.33</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="A96" t="s">
         <v>101</v>
       </c>
       <c r="B96" t="s">
         <v>9</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>74.94</v>
       </c>
-      <c r="D96">
-        <v>66.680000000000007</v>
-      </c>
-      <c r="E96">
+      <c r="D96" t="n">
+        <v>66.68</v>
+      </c>
+      <c r="E96" t="n">
         <v>83.21</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="A97" t="s">
         <v>102</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
       </c>
-      <c r="C97">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="D97">
+      <c r="C97" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D97" t="n">
         <v>26.19</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>43.2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="A98" t="s">
         <v>103</v>
       </c>
       <c r="B98" t="s">
         <v>9</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>82.82</v>
       </c>
-      <c r="D98">
-        <v>75.569999999999993</v>
-      </c>
-      <c r="E98">
+      <c r="D98" t="n">
+        <v>75.57</v>
+      </c>
+      <c r="E98" t="n">
         <v>90.07</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="A99" t="s">
         <v>104</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>34.83</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>26.14</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>43.51</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="A100" t="s">
         <v>105</v>
       </c>
       <c r="B100" t="s">
         <v>9</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>51.18</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>40.64</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>61.73</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="A101" t="s">
         <v>106</v>
       </c>
       <c r="B101" t="s">
         <v>9</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>67.36</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>58.07</v>
       </c>
-      <c r="E101">
-        <v>76.650000000000006</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E101" t="n">
+        <v>76.65</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" t="s">
         <v>107</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>66.75</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>57.61</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>75.89</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="A103" t="s">
         <v>108</v>
       </c>
       <c r="B103" t="s">
         <v>9</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>47.69</v>
       </c>
-      <c r="D103">
-        <v>37.119999999999997</v>
-      </c>
-      <c r="E103">
+      <c r="D103" t="n">
+        <v>37.12</v>
+      </c>
+      <c r="E103" t="n">
         <v>58.26</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="A104" t="s">
         <v>109</v>
       </c>
       <c r="B104" t="s">
         <v>9</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>69.72</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>61.4</v>
       </c>
-      <c r="E104">
-        <v>78.040000000000006</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E104" t="n">
+        <v>78.04</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" t="s">
         <v>110</v>
       </c>
       <c r="B105" t="s">
         <v>9</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>82.83</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>75.62</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>90.03</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="A106" t="s">
         <v>111</v>
       </c>
       <c r="B106" t="s">
         <v>9</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>88.01</v>
       </c>
-      <c r="D106">
-        <v>81.459999999999994</v>
-      </c>
-      <c r="E106">
+      <c r="D106" t="n">
+        <v>81.46</v>
+      </c>
+      <c r="E106" t="n">
         <v>94.56</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="A107" t="s">
         <v>112</v>
       </c>
       <c r="B107" t="s">
         <v>9</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>69.73</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>61.33</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>78.14</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="A108" t="s">
         <v>113</v>
       </c>
       <c r="B108" t="s">
         <v>9</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>83.42</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>76.06</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>90.79</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="A109" t="s">
         <v>114</v>
       </c>
       <c r="B109" t="s">
         <v>9</v>
       </c>
-      <c r="C109">
-        <v>76.900000000000006</v>
-      </c>
-      <c r="D109">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="E109">
+      <c r="C109" t="n">
+        <v>76.9</v>
+      </c>
+      <c r="D109" t="n">
+        <v>68.9</v>
+      </c>
+      <c r="E109" t="n">
         <v>84.91</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="A110" t="s">
         <v>115</v>
       </c>
       <c r="B110" t="s">
         <v>9</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>62.13</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>53.13</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>71.13</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="A111" t="s">
         <v>116</v>
       </c>
       <c r="B111" t="s">
         <v>9</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>60.37</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>50.95</v>
       </c>
-      <c r="E111">
-        <v>69.790000000000006</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E111" t="n">
+        <v>69.79</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112" t="s">
         <v>117</v>
       </c>
       <c r="B112" t="s">
         <v>9</v>
       </c>
-      <c r="C112">
-        <v>38.479999999999997</v>
-      </c>
-      <c r="D112">
+      <c r="C112" t="n">
+        <v>38.48</v>
+      </c>
+      <c r="D112" t="n">
         <v>29.24</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>47.73</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="A113" t="s">
         <v>118</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>141.44</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>139.66</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>143.21</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="A114" t="s">
         <v>119</v>
       </c>
       <c r="B114" t="s">
         <v>9</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>9.5</v>
       </c>
-      <c r="D114">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E114">
+      <c r="D114" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E114" t="n">
         <v>14.09</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="A115" t="s">
         <v>120</v>
       </c>
       <c r="B115" t="s">
         <v>9</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>7.63</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>2.69</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>12.56</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="A116" t="s">
         <v>121</v>
       </c>
       <c r="B116" t="s">
         <v>9</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>1.76</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>0.01</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>3.62</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="A117" t="s">
         <v>122</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>-1.49</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>-1.71</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>-1.28</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="A118" t="s">
         <v>123</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>36.35</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>29.56</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>43.14</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="A119" t="s">
         <v>124</v>
       </c>
       <c r="B119" t="s">
         <v>9</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>21.25</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>12.81</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>29.7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="A120" t="s">
         <v>125</v>
       </c>
       <c r="B120" t="s">
         <v>9</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>15.06</v>
       </c>
-      <c r="D120">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="E120">
+      <c r="D120" t="n">
+        <v>9.87</v>
+      </c>
+      <c r="E120" t="n">
         <v>20.25</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="A121" t="s">
         <v>126</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>-1.41</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>-1.59</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>-1.24</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="A122" t="s">
         <v>127</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>29.16</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>22.05</v>
       </c>
-      <c r="E122">
-        <v>36.270000000000003</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E122" t="n">
+        <v>36.27</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="A123" t="s">
         <v>128</v>
       </c>
       <c r="B123" t="s">
         <v>9</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>21.14</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>12.82</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>29.45</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="A124" t="s">
         <v>129</v>
       </c>
       <c r="B124" t="s">
         <v>9</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>7.93</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>3.43</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>12.42</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="A125" t="s">
         <v>130</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>-0.76</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>-0.96</v>
       </c>
-      <c r="E125">
-        <v>-0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E125" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126" t="s">
         <v>131</v>
       </c>
       <c r="B126" t="s">
         <v>9</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>13.6</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>8.16</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>19.04</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="A127" t="s">
         <v>132</v>
       </c>
       <c r="B127" t="s">
         <v>9</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>10.78</v>
       </c>
-      <c r="D127">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="E127">
+      <c r="D127" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="E127" t="n">
         <v>16.87</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="A128" t="s">
         <v>133</v>
       </c>
       <c r="B128" t="s">
         <v>9</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>2.72</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>0.01</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>5.58</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="A129" t="s">
         <v>134</v>
       </c>
       <c r="B129" t="s">
         <v>9</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>0.18</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>0.01</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>0.86</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="A130" t="s">
         <v>135</v>
       </c>
       <c r="B130" t="s">
         <v>9</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>2.14</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>0.01</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>4.42</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="A131" t="s">
         <v>136</v>
       </c>
       <c r="B131" t="s">
         <v>9</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>0.85</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>0.01</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>2.66</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="A132" t="s">
         <v>137</v>
       </c>
       <c r="B132" t="s">
         <v>9</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>23.98</v>
       </c>
-      <c r="D132">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="E132">
+      <c r="D132" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="E132" t="n">
         <v>30.05</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="A133" t="s">
         <v>138</v>
       </c>
       <c r="B133" t="s">
         <v>9</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>23.73</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>16.96</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>30.51</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="A134" t="s">
         <v>139</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>23.13</v>
       </c>
-      <c r="D134">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="E134">
+      <c r="D134" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="E134" t="n">
         <v>29.12</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="A135" t="s">
         <v>140</v>
       </c>
       <c r="B135" t="s">
         <v>9</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>62.87</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>47.8</v>
       </c>
-      <c r="E135">
-        <v>77.930000000000007</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E135" t="n">
+        <v>77.93</v>
+      </c>
+    </row>
+    <row r="136">
       <c r="A136" t="s">
         <v>141</v>
       </c>
       <c r="B136" t="s">
         <v>9</v>
       </c>
-      <c r="C136">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="D136">
+      <c r="C136" t="n">
+        <v>70.1</v>
+      </c>
+      <c r="D136" t="n">
         <v>56.48</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>83.72</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137">
       <c r="A137" t="s">
         <v>142</v>
       </c>
       <c r="B137" t="s">
         <v>9</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>74.72</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>61.76</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>87.68</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138">
       <c r="A138" t="s">
         <v>143</v>
       </c>
       <c r="B138" t="s">
         <v>9</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>25.79</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>13.86</v>
       </c>
-      <c r="E138">
-        <v>37.729999999999997</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E138" t="n">
+        <v>37.73</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139" t="s">
         <v>144</v>
       </c>
       <c r="B139" t="s">
         <v>9</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>43.52</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>29.71</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>57.34</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140">
       <c r="A140" t="s">
         <v>145</v>
       </c>
       <c r="B140" t="s">
         <v>9</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>56.46</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>42.88</v>
       </c>
-      <c r="E140">
-        <v>70.040000000000006</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E140" t="n">
+        <v>70.04</v>
+      </c>
+    </row>
+    <row r="141">
       <c r="A141" t="s">
         <v>146</v>
       </c>
       <c r="B141" t="s">
         <v>9</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>0</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>0</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142">
       <c r="A142" t="s">
         <v>147</v>
       </c>
       <c r="B142" t="s">
         <v>9</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>1.07</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>0.01</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="n">
         <v>4.03</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143">
       <c r="A143" t="s">
         <v>148</v>
       </c>
       <c r="B143" t="s">
         <v>9</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>27.18</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>20.12</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="n">
         <v>34.24</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144">
       <c r="A144" t="s">
         <v>149</v>
       </c>
       <c r="B144" t="s">
         <v>150</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>68.77</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>43.61</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="n">
         <v>93.93</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145">
       <c r="A145" t="s">
         <v>151</v>
       </c>
       <c r="B145" t="s">
         <v>9</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>16.45</v>
       </c>
-      <c r="D145">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="E145">
+      <c r="D145" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="E145" t="n">
         <v>22.76</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146">
       <c r="A146" t="s">
         <v>152</v>
       </c>
       <c r="B146" t="s">
         <v>9</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>53.6</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>40.17</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="n">
         <v>67.03</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147">
       <c r="A147" t="s">
         <v>153</v>
       </c>
       <c r="B147" t="s">
         <v>9</v>
       </c>
-      <c r="C147">
-        <v>80.739999999999995</v>
-      </c>
-      <c r="D147">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E147">
+      <c r="C147" t="n">
+        <v>80.74</v>
+      </c>
+      <c r="D147" t="n">
+        <v>70.4</v>
+      </c>
+      <c r="E147" t="n">
         <v>91.09</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148">
       <c r="A148" t="s">
         <v>154</v>
       </c>
       <c r="B148" t="s">
         <v>9</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>72.13</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="n">
         <v>62.27</v>
       </c>
-      <c r="E148">
+      <c r="E148" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149">
       <c r="A149" t="s">
         <v>155</v>
       </c>
       <c r="B149" t="s">
         <v>9</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>0.3</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>0.01</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="n">
         <v>1.83</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150">
       <c r="A150" t="s">
         <v>156</v>
       </c>
       <c r="B150" t="s">
         <v>9</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>17.55</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="n">
         <v>0.54</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="n">
         <v>34.57</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151">
       <c r="A151" t="s">
         <v>157</v>
       </c>
       <c r="B151" t="s">
         <v>9</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>0.09</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>0.01</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="n">
         <v>1.32</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152">
       <c r="A152" t="s">
         <v>158</v>
       </c>
       <c r="B152" t="s">
         <v>9</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>3.22</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>0.01</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="n">
         <v>8.94</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153">
       <c r="A153" t="s">
         <v>159</v>
       </c>
       <c r="B153" t="s">
         <v>9</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>14.16</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>0.42</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="n">
         <v>27.9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154">
       <c r="A154" t="s">
         <v>160</v>
       </c>
       <c r="B154" t="s">
         <v>9</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>1.77</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>0.01</v>
       </c>
-      <c r="E154">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E154" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="155">
       <c r="A155" t="s">
         <v>161</v>
       </c>
       <c r="B155" t="s">
         <v>9</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>0.11</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>0.01</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="n">
         <v>0.87</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156">
       <c r="A156" t="s">
         <v>162</v>
       </c>
       <c r="B156" t="s">
         <v>9</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>19.2</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>4.63</v>
       </c>
-      <c r="E156">
-        <v>33.770000000000003</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E156" t="n">
+        <v>33.77</v>
+      </c>
+    </row>
+    <row r="157">
       <c r="A157" t="s">
         <v>163</v>
       </c>
       <c r="B157" t="s">
         <v>9</v>
       </c>
-      <c r="C157">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D157">
+      <c r="C157" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D157" t="n">
         <v>0.01</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="n">
         <v>12.01</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158">
       <c r="A158" t="s">
         <v>164</v>
       </c>
       <c r="B158" t="s">
         <v>9</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>36.28</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>17.84</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="n">
         <v>54.71</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159">
       <c r="A159" t="s">
         <v>165</v>
       </c>
       <c r="B159" t="s">
         <v>9</v>
       </c>
-      <c r="C159">
-        <v>66.569999999999993</v>
-      </c>
-      <c r="D159">
+      <c r="C159" t="n">
+        <v>66.57</v>
+      </c>
+      <c r="D159" t="n">
         <v>57.41</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="n">
         <v>75.72</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160">
       <c r="A160" t="s">
         <v>166</v>
       </c>
       <c r="B160" t="s">
         <v>9</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>6.03</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>1.54</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="n">
         <v>10.51</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161">
       <c r="A161" t="s">
         <v>167</v>
       </c>
       <c r="B161" t="s">
         <v>9</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>12.89</v>
       </c>
-      <c r="D161">
+      <c r="D161" t="n">
         <v>6.62</v>
       </c>
-      <c r="E161">
+      <c r="E161" t="n">
         <v>19.16</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162">
       <c r="A162" t="s">
         <v>168</v>
       </c>
       <c r="B162" t="s">
         <v>9</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>7.55</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>3.86</v>
       </c>
-      <c r="E162">
+      <c r="E162" t="n">
         <v>11.23</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163">
       <c r="A163" t="s">
         <v>169</v>
       </c>
       <c r="B163" t="s">
         <v>9</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>38.36</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>27.68</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="n">
         <v>49.03</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164">
       <c r="A164" t="s">
         <v>170</v>
       </c>
       <c r="B164" t="s">
         <v>9</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>23.36</v>
       </c>
-      <c r="D164">
-        <v>16.059999999999999</v>
-      </c>
-      <c r="E164">
+      <c r="D164" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="E164" t="n">
         <v>30.66</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165">
       <c r="A165" t="s">
         <v>171</v>
       </c>
       <c r="B165" t="s">
         <v>9</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>62.31</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>43.99</v>
       </c>
-      <c r="E165">
+      <c r="E165" t="n">
         <v>80.64</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166">
       <c r="A166" t="s">
         <v>172</v>
       </c>
       <c r="B166" t="s">
         <v>9</v>
       </c>
-      <c r="C166">
-        <v>73.290000000000006</v>
-      </c>
-      <c r="D166">
+      <c r="C166" t="n">
+        <v>73.29</v>
+      </c>
+      <c r="D166" t="n">
         <v>65.09</v>
       </c>
-      <c r="E166">
+      <c r="E166" t="n">
         <v>81.5</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167">
       <c r="A167" t="s">
         <v>173</v>
       </c>
       <c r="B167" t="s">
         <v>9</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>25.4</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>17.04</v>
       </c>
-      <c r="E167">
+      <c r="E167" t="n">
         <v>33.76</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168">
       <c r="A168" t="s">
         <v>174</v>
       </c>
       <c r="B168" t="s">
         <v>9</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>63.24</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>52.5</v>
       </c>
-      <c r="E168">
+      <c r="E168" t="n">
         <v>73.98</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169">
       <c r="A169" t="s">
         <v>175</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>3.75</v>
       </c>
-      <c r="D169">
+      <c r="D169" t="n">
         <v>3.46</v>
       </c>
-      <c r="E169">
+      <c r="E169" t="n">
         <v>4.04</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170">
       <c r="A170" t="s">
         <v>176</v>
       </c>
       <c r="B170" t="s">
         <v>9</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>12.7</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>6.76</v>
       </c>
-      <c r="E170">
+      <c r="E170" t="n">
         <v>18.64</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171">
       <c r="A171" t="s">
         <v>177</v>
       </c>
       <c r="B171" t="s">
         <v>9</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>22.33</v>
       </c>
-      <c r="D171">
+      <c r="D171" t="n">
         <v>15.84</v>
       </c>
-      <c r="E171">
+      <c r="E171" t="n">
         <v>28.82</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172">
       <c r="A172" t="s">
         <v>178</v>
       </c>
       <c r="B172" t="s">
         <v>9</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>24.36</v>
       </c>
-      <c r="D172">
+      <c r="D172" t="n">
         <v>0.01</v>
       </c>
-      <c r="E172">
+      <c r="E172" t="n">
         <v>51.79</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173">
       <c r="A173" t="s">
         <v>179</v>
       </c>
       <c r="B173" t="s">
         <v>9</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>6.66</v>
       </c>
-      <c r="D173">
+      <c r="D173" t="n">
         <v>0.01</v>
       </c>
-      <c r="E173">
+      <c r="E173" t="n">
         <v>20.49</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174">
       <c r="A174" t="s">
         <v>180</v>
       </c>
       <c r="B174" t="s">
         <v>9</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>28.85</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="n">
         <v>1.73</v>
       </c>
-      <c r="E174">
+      <c r="E174" t="n">
         <v>55.98</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175">
       <c r="A175" t="s">
         <v>181</v>
       </c>
       <c r="B175" t="s">
         <v>9</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>6.56</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>0.01</v>
       </c>
-      <c r="E175">
+      <c r="E175" t="n">
         <v>21.29</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176">
       <c r="A176" t="s">
         <v>182</v>
       </c>
       <c r="B176" t="s">
         <v>9</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>19.02</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="n">
         <v>0.01</v>
       </c>
-      <c r="E176">
+      <c r="E176" t="n">
         <v>47.12</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177">
       <c r="A177" t="s">
         <v>183</v>
       </c>
       <c r="B177" t="s">
         <v>9</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>23.44</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="n">
         <v>0.01</v>
       </c>
-      <c r="E177">
+      <c r="E177" t="n">
         <v>50.09</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178">
       <c r="A178" t="s">
         <v>184</v>
       </c>
       <c r="B178" t="s">
         <v>9</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>12.28</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>0.01</v>
       </c>
-      <c r="E178">
+      <c r="E178" t="n">
         <v>31.05</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179">
       <c r="A179" t="s">
         <v>185</v>
       </c>
       <c r="B179" t="s">
         <v>9</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>17.62</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>0.01</v>
       </c>
-      <c r="E179">
+      <c r="E179" t="n">
         <v>44.07</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180">
       <c r="A180" t="s">
         <v>186</v>
       </c>
       <c r="B180" t="s">
         <v>9</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>14.99</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="n">
         <v>0.01</v>
       </c>
-      <c r="E180">
+      <c r="E180" t="n">
         <v>34.51</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181">
       <c r="A181" t="s">
         <v>187</v>
       </c>
       <c r="B181" t="s">
         <v>9</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>28.76</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>1.62</v>
       </c>
-      <c r="E181">
+      <c r="E181" t="n">
         <v>55.91</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182">
       <c r="A182" t="s">
         <v>188</v>
       </c>
       <c r="B182" t="s">
         <v>9</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>30.69</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>2.54</v>
       </c>
-      <c r="E182">
+      <c r="E182" t="n">
         <v>58.84</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183">
       <c r="A183" t="s">
         <v>189</v>
       </c>
       <c r="B183" t="s">
         <v>9</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>14.97</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="n">
         <v>0.01</v>
       </c>
-      <c r="E183">
-        <v>34.770000000000003</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E183" t="n">
+        <v>34.77</v>
+      </c>
+    </row>
+    <row r="184">
       <c r="A184" t="s">
         <v>190</v>
       </c>
       <c r="B184" t="s">
         <v>9</v>
       </c>
-      <c r="C184">
-        <v>18.829999999999998</v>
-      </c>
-      <c r="D184">
+      <c r="C184" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="D184" t="n">
         <v>0.01</v>
       </c>
-      <c r="E184">
+      <c r="E184" t="n">
         <v>41.1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185">
       <c r="A185" t="s">
         <v>191</v>
       </c>
       <c r="B185" t="s">
         <v>9</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>25.78</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="n">
         <v>0.01</v>
       </c>
-      <c r="E185">
+      <c r="E185" t="n">
         <v>53.77</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186">
       <c r="A186" t="s">
         <v>192</v>
       </c>
       <c r="B186" t="s">
         <v>9</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>11.02</v>
       </c>
-      <c r="D186">
+      <c r="D186" t="n">
         <v>0.01</v>
       </c>
-      <c r="E186">
+      <c r="E186" t="n">
         <v>30.41</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187">
       <c r="A187" t="s">
         <v>193</v>
       </c>
       <c r="B187" t="s">
         <v>9</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>78.59</v>
       </c>
-      <c r="D187">
+      <c r="D187" t="n">
         <v>59.32</v>
       </c>
-      <c r="E187">
+      <c r="E187" t="n">
         <v>97.86</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188">
       <c r="A188" t="s">
         <v>194</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
       </c>
-      <c r="C188">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="D188">
+      <c r="C188" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D188" t="n">
         <v>3.91</v>
       </c>
-      <c r="E188">
+      <c r="E188" t="n">
         <v>5.3</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189">
       <c r="A189" t="s">
         <v>195</v>
       </c>
       <c r="B189" t="s">
         <v>9</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>43.22</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="n">
         <v>21.34</v>
       </c>
-      <c r="E189">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E189" t="n">
+        <v>65.1</v>
+      </c>
+    </row>
+    <row r="190">
       <c r="A190" t="s">
         <v>196</v>
       </c>
       <c r="B190" t="s">
         <v>9</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>61.74</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>50.98</v>
       </c>
-      <c r="E190">
+      <c r="E190" t="n">
         <v>72.5</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191">
       <c r="A191" t="s">
         <v>197</v>
       </c>
       <c r="B191" t="s">
         <v>9</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>77.58</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="n">
         <v>67.09</v>
       </c>
-      <c r="E191">
+      <c r="E191" t="n">
         <v>88.07</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192">
       <c r="A192" t="s">
         <v>198</v>
       </c>
       <c r="B192" t="s">
         <v>9</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>75.98</v>
       </c>
-      <c r="D192">
-        <v>65.260000000000005</v>
-      </c>
-      <c r="E192">
+      <c r="D192" t="n">
+        <v>65.26</v>
+      </c>
+      <c r="E192" t="n">
         <v>86.71</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193">
       <c r="A193" t="s">
         <v>199</v>
       </c>
       <c r="B193" t="s">
         <v>9</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>59.04</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="n">
         <v>47.23</v>
       </c>
-      <c r="E193">
+      <c r="E193" t="n">
         <v>70.84</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194">
       <c r="A194" t="s">
         <v>200</v>
       </c>
       <c r="B194" t="s">
         <v>9</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="n">
         <v>72.66</v>
       </c>
-      <c r="D194">
+      <c r="D194" t="n">
         <v>61.72</v>
       </c>
-      <c r="E194">
+      <c r="E194" t="n">
         <v>83.59</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195">
       <c r="A195" t="s">
         <v>201</v>
       </c>
       <c r="B195" t="s">
         <v>9</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>56.86</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>45.22</v>
       </c>
-      <c r="E195">
+      <c r="E195" t="n">
         <v>68.5</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196">
       <c r="A196" t="s">
         <v>202</v>
       </c>
       <c r="B196" t="s">
         <v>9</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>28.5</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="n">
         <v>18.28</v>
       </c>
-      <c r="E196">
+      <c r="E196" t="n">
         <v>38.71</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197">
       <c r="A197" t="s">
         <v>203</v>
       </c>
       <c r="B197" t="s">
         <v>9</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="n">
         <v>7.45</v>
       </c>
-      <c r="D197">
+      <c r="D197" t="n">
         <v>1.18</v>
       </c>
-      <c r="E197">
+      <c r="E197" t="n">
         <v>13.72</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198">
       <c r="A198" t="s">
         <v>204</v>
       </c>
       <c r="B198" t="s">
         <v>9</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>26.74</v>
       </c>
-      <c r="D198">
-        <v>16.760000000000002</v>
-      </c>
-      <c r="E198">
-        <v>36.729999999999997</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D198" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="E198" t="n">
+        <v>36.73</v>
+      </c>
+    </row>
+    <row r="199">
       <c r="A199" t="s">
         <v>205</v>
       </c>
       <c r="B199" t="s">
         <v>6</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="n">
         <v>0.4</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="n">
         <v>0.3</v>
       </c>
-      <c r="E199">
+      <c r="E199" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200">
       <c r="A200" t="s">
         <v>206</v>
       </c>
       <c r="B200" t="s">
         <v>9</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="n">
         <v>1210.8</v>
       </c>
-      <c r="D200">
-        <v>1145.3399999999999</v>
-      </c>
-      <c r="E200">
+      <c r="D200" t="n">
+        <v>1145.34</v>
+      </c>
+      <c r="E200" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201">
       <c r="A201" t="s">
         <v>207</v>
       </c>
       <c r="B201" t="s">
         <v>9</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>13.07</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="n">
         <v>0.01</v>
       </c>
-      <c r="E201">
+      <c r="E201" t="n">
         <v>27.9</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202">
       <c r="A202" t="s">
         <v>208</v>
       </c>
       <c r="B202" t="s">
         <v>9</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>6.65</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="n">
         <v>0.01</v>
       </c>
-      <c r="E202">
-        <v>16.670000000000002</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E202" t="n">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="203">
       <c r="A203" t="s">
         <v>209</v>
       </c>
       <c r="B203" t="s">
         <v>9</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>5.44</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="n">
         <v>0.01</v>
       </c>
-      <c r="E203">
-        <v>16.510000000000002</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E203" t="n">
+        <v>16.51</v>
+      </c>
+    </row>
+    <row r="204">
       <c r="A204" t="s">
         <v>210</v>
       </c>
       <c r="B204" t="s">
         <v>6</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>0.04</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="n">
         <v>-0.01</v>
       </c>
-      <c r="E204">
+      <c r="E204" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205">
       <c r="A205" t="s">
         <v>211</v>
       </c>
       <c r="B205" t="s">
         <v>9</v>
       </c>
-      <c r="C205">
-        <v>1069.6300000000001</v>
-      </c>
-      <c r="D205">
+      <c r="C205" t="n">
+        <v>1069.63</v>
+      </c>
+      <c r="D205" t="n">
         <v>984.69</v>
       </c>
-      <c r="E205">
+      <c r="E205" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206">
       <c r="A206" t="s">
         <v>212</v>
       </c>
       <c r="B206" t="s">
         <v>9</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="n">
         <v>41.91</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="n">
         <v>23.69</v>
       </c>
-      <c r="E206">
+      <c r="E206" t="n">
         <v>60.14</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207">
       <c r="A207" t="s">
         <v>213</v>
       </c>
       <c r="B207" t="s">
         <v>9</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="n">
         <v>20.65</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>7.39</v>
       </c>
-      <c r="E207">
-        <v>33.909999999999997</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E207" t="n">
+        <v>33.91</v>
+      </c>
+    </row>
+    <row r="208">
       <c r="A208" t="s">
         <v>214</v>
       </c>
       <c r="B208" t="s">
         <v>9</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>19.09</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="n">
         <v>5.42</v>
       </c>
-      <c r="E208">
+      <c r="E208" t="n">
         <v>32.75</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209">
       <c r="A209" t="s">
         <v>215</v>
       </c>
       <c r="B209" t="s">
         <v>9</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="n">
         <v>1.53</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="n">
         <v>0.01</v>
       </c>
-      <c r="E209">
+      <c r="E209" t="n">
         <v>5.63</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210">
       <c r="A210" t="s">
         <v>216</v>
       </c>
       <c r="B210" t="s">
         <v>9</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="n">
         <v>81.72</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="n">
         <v>74.77</v>
       </c>
-      <c r="E210">
+      <c r="E210" t="n">
         <v>88.68</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211">
       <c r="A211" t="s">
         <v>217</v>
       </c>
       <c r="B211" t="s">
         <v>9</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>2.19</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="n">
         <v>0.01</v>
       </c>
-      <c r="E211">
+      <c r="E211" t="n">
         <v>4.47</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212">
       <c r="A212" t="s">
         <v>218</v>
       </c>
       <c r="B212" t="s">
         <v>9</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>3.39</v>
       </c>
-      <c r="D212">
+      <c r="D212" t="n">
         <v>0.69</v>
       </c>
-      <c r="E212">
+      <c r="E212" t="n">
         <v>6.08</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213">
       <c r="A213" t="s">
         <v>219</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="n">
         <v>0.84</v>
       </c>
-      <c r="D213">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E213">
-        <v>1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D213" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="214">
       <c r="A214" t="s">
         <v>220</v>
       </c>
       <c r="B214" t="s">
         <v>9</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="n">
         <v>26874.17</v>
       </c>
-      <c r="D214">
+      <c r="D214" t="n">
         <v>26064.02</v>
       </c>
-      <c r="E214">
+      <c r="E214" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215">
       <c r="A215" t="s">
         <v>221</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
       </c>
-      <c r="C215">
+      <c r="C215" t="n">
         <v>0.17</v>
       </c>
-      <c r="D215">
+      <c r="D215" t="n">
         <v>0.1</v>
       </c>
-      <c r="E215">
+      <c r="E215" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216">
       <c r="A216" t="s">
         <v>222</v>
       </c>
       <c r="B216" t="s">
         <v>9</v>
       </c>
-      <c r="C216">
+      <c r="C216" t="n">
         <v>241.19</v>
       </c>
-      <c r="D216">
+      <c r="D216" t="n">
         <v>215.18</v>
       </c>
-      <c r="E216">
+      <c r="E216" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217">
       <c r="A217" t="s">
         <v>223</v>
       </c>
       <c r="B217" t="s">
         <v>9</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="n">
         <v>7.37</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="n">
         <v>1.97</v>
       </c>
-      <c r="E217">
+      <c r="E217" t="n">
         <v>12.78</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218">
       <c r="A218" t="s">
         <v>224</v>
       </c>
       <c r="B218" t="s">
         <v>9</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="n">
         <v>47.07</v>
       </c>
-      <c r="D218">
-        <v>37.380000000000003</v>
-      </c>
-      <c r="E218">
+      <c r="D218" t="n">
+        <v>37.38</v>
+      </c>
+      <c r="E218" t="n">
         <v>56.77</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219">
       <c r="A219" t="s">
         <v>225</v>
       </c>
       <c r="B219" t="s">
         <v>9</v>
       </c>
-      <c r="C219">
-        <v>33.130000000000003</v>
-      </c>
-      <c r="D219">
+      <c r="C219" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="D219" t="n">
         <v>23.97</v>
       </c>
-      <c r="E219">
+      <c r="E219" t="n">
         <v>42.28</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220">
       <c r="A220" t="s">
         <v>226</v>
       </c>
       <c r="B220" t="s">
         <v>9</v>
       </c>
-      <c r="C220">
-        <v>79.239999999999995</v>
-      </c>
-      <c r="D220">
+      <c r="C220" t="n">
+        <v>79.24</v>
+      </c>
+      <c r="D220" t="n">
         <v>71.7</v>
       </c>
-      <c r="E220">
+      <c r="E220" t="n">
         <v>86.78</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221">
       <c r="A221" t="s">
         <v>227</v>
       </c>
       <c r="B221" t="s">
         <v>9</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="n">
         <v>32.43</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="n">
         <v>23.42</v>
       </c>
-      <c r="E221">
+      <c r="E221" t="n">
         <v>41.45</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222">
       <c r="A222" t="s">
         <v>228</v>
       </c>
       <c r="B222" t="s">
         <v>9</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>49.89</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="n">
         <v>40.39</v>
       </c>
-      <c r="E222">
+      <c r="E222" t="n">
         <v>59.38</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223">
       <c r="A223" t="s">
         <v>229</v>
       </c>
       <c r="B223" t="s">
         <v>9</v>
       </c>
-      <c r="C223">
-        <v>35.880000000000003</v>
-      </c>
-      <c r="D223">
+      <c r="C223" t="n">
+        <v>35.88</v>
+      </c>
+      <c r="D223" t="n">
         <v>23.84</v>
       </c>
-      <c r="E223">
+      <c r="E223" t="n">
         <v>47.93</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224">
       <c r="A224" t="s">
         <v>230</v>
       </c>
       <c r="B224" t="s">
         <v>9</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="n">
         <v>18.22</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>6.98</v>
       </c>
-      <c r="E224">
+      <c r="E224" t="n">
         <v>29.47</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225">
       <c r="A225" t="s">
         <v>231</v>
       </c>
       <c r="B225" t="s">
         <v>9</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="n">
         <v>6.04</v>
       </c>
-      <c r="D225">
+      <c r="D225" t="n">
         <v>0.01</v>
       </c>
-      <c r="E225">
+      <c r="E225" t="n">
         <v>14.29</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226">
       <c r="A226" t="s">
         <v>232</v>
       </c>
       <c r="B226" t="s">
         <v>9</v>
       </c>
-      <c r="C226">
+      <c r="C226" t="n">
         <v>10.45</v>
       </c>
-      <c r="D226">
+      <c r="D226" t="n">
         <v>0.95</v>
       </c>
-      <c r="E226">
+      <c r="E226" t="n">
         <v>19.95</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227">
       <c r="A227" t="s">
         <v>233</v>
       </c>
       <c r="B227" t="s">
         <v>9</v>
       </c>
-      <c r="C227">
+      <c r="C227" t="n">
         <v>12.91</v>
       </c>
-      <c r="D227">
+      <c r="D227" t="n">
         <v>3.17</v>
       </c>
-      <c r="E227">
+      <c r="E227" t="n">
         <v>22.65</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228">
       <c r="A228" t="s">
         <v>234</v>
       </c>
       <c r="B228" t="s">
         <v>9</v>
       </c>
-      <c r="C228">
+      <c r="C228" t="n">
         <v>6.02</v>
       </c>
-      <c r="D228">
+      <c r="D228" t="n">
         <v>0.01</v>
       </c>
-      <c r="E228">
+      <c r="E228" t="n">
         <v>14.09</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229">
       <c r="A229" t="s">
         <v>235</v>
       </c>
       <c r="B229" t="s">
         <v>9</v>
       </c>
-      <c r="C229">
-        <v>9</v>
-      </c>
-      <c r="D229">
+      <c r="C229" t="n">
+        <v>9</v>
+      </c>
+      <c r="D229" t="n">
         <v>0.48</v>
       </c>
-      <c r="E229">
+      <c r="E229" t="n">
         <v>17.52</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230">
       <c r="A230" t="s">
         <v>236</v>
       </c>
       <c r="B230" t="s">
         <v>9</v>
       </c>
-      <c r="C230">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="D230">
+      <c r="C230" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="D230" t="n">
         <v>23.58</v>
       </c>
-      <c r="E230">
+      <c r="E230" t="n">
         <v>47.82</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231">
       <c r="A231" t="s">
         <v>237</v>
       </c>
       <c r="B231" t="s">
         <v>9</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="n">
         <v>14.34</v>
       </c>
-      <c r="D231">
+      <c r="D231" t="n">
         <v>4.13</v>
       </c>
-      <c r="E231">
+      <c r="E231" t="n">
         <v>24.56</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232">
       <c r="A232" t="s">
         <v>238</v>
       </c>
       <c r="B232" t="s">
         <v>9</v>
       </c>
-      <c r="C232">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D232">
+      <c r="C232" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D232" t="n">
         <v>0.01</v>
       </c>
-      <c r="E232">
+      <c r="E232" t="n">
         <v>12.63</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233">
       <c r="A233" t="s">
         <v>239</v>
       </c>
       <c r="B233" t="s">
         <v>9</v>
       </c>
-      <c r="C233">
+      <c r="C233" t="n">
         <v>7.86</v>
       </c>
-      <c r="D233">
+      <c r="D233" t="n">
         <v>0.01</v>
       </c>
-      <c r="E233">
+      <c r="E233" t="n">
         <v>15.73</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234">
       <c r="A234" t="s">
         <v>240</v>
       </c>
       <c r="B234" t="s">
         <v>9</v>
       </c>
-      <c r="C234">
+      <c r="C234" t="n">
         <v>8.92</v>
       </c>
-      <c r="D234">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E234">
-        <v>17.260000000000002</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D234" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E234" t="n">
+        <v>17.26</v>
+      </c>
+    </row>
+    <row r="235">
       <c r="A235" t="s">
         <v>241</v>
       </c>
       <c r="B235" t="s">
         <v>9</v>
       </c>
-      <c r="C235">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="D235">
+      <c r="C235" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="D235" t="n">
         <v>0.01</v>
       </c>
-      <c r="E235">
+      <c r="E235" t="n">
         <v>11.53</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236">
       <c r="A236" t="s">
         <v>242</v>
       </c>
       <c r="B236" t="s">
         <v>9</v>
       </c>
-      <c r="C236">
+      <c r="C236" t="n">
         <v>7.39</v>
       </c>
-      <c r="D236">
+      <c r="D236" t="n">
         <v>0.05</v>
       </c>
-      <c r="E236">
+      <c r="E236" t="n">
         <v>14.73</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237">
       <c r="A237" t="s">
         <v>243</v>
       </c>
       <c r="B237" t="s">
         <v>9</v>
       </c>
-      <c r="C237">
+      <c r="C237" t="n">
         <v>93.64</v>
       </c>
-      <c r="D237">
+      <c r="D237" t="n">
         <v>85.71</v>
       </c>
-      <c r="E237">
+      <c r="E237" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238">
       <c r="A238" t="s">
         <v>242</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
       </c>
-      <c r="C238">
-        <v>80.930000000000007</v>
-      </c>
-      <c r="D238">
+      <c r="C238" t="n">
+        <v>80.93</v>
+      </c>
+      <c r="D238" t="n">
         <v>69.44</v>
       </c>
-      <c r="E238">
+      <c r="E238" t="n">
         <v>92.43</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239">
       <c r="A239" t="s">
         <v>243</v>
       </c>
       <c r="B239" t="s">
         <v>9</v>
       </c>
-      <c r="C239">
+      <c r="C239" t="n">
         <v>93.6</v>
       </c>
-      <c r="D239">
+      <c r="D239" t="n">
         <v>85.8</v>
       </c>
-      <c r="E239">
+      <c r="E239" t="n">
         <v>99.99</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240">
       <c r="A240" t="s">
         <v>244</v>
       </c>
       <c r="B240" t="s">
         <v>9</v>
       </c>
-      <c r="C240">
+      <c r="C240" t="n">
         <v>80.69</v>
       </c>
-      <c r="D240">
+      <c r="D240" t="n">
         <v>69.31</v>
       </c>
-      <c r="E240">
+      <c r="E240" t="n">
         <v>92.06</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241">
       <c r="A241" t="s">
         <v>245</v>
       </c>
       <c r="B241" t="s">
         <v>9</v>
       </c>
-      <c r="C241">
+      <c r="C241" t="n">
         <v>37.4</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="n">
         <v>25.47</v>
       </c>
-      <c r="E241">
+      <c r="E241" t="n">
         <v>49.33</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242">
       <c r="A242" t="s">
         <v>246</v>
       </c>
       <c r="B242" t="s">
         <v>9</v>
       </c>
-      <c r="C242">
+      <c r="C242" t="n">
         <v>30.47</v>
       </c>
-      <c r="D242">
+      <c r="D242" t="n">
         <v>20.05</v>
       </c>
-      <c r="E242">
+      <c r="E242" t="n">
         <v>40.9</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243">
       <c r="A243" t="s">
         <v>247</v>
       </c>
       <c r="B243" t="s">
         <v>9</v>
       </c>
-      <c r="C243">
-        <v>33.119999999999997</v>
-      </c>
-      <c r="D243">
-        <v>20.420000000000002</v>
-      </c>
-      <c r="E243">
+      <c r="C243" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="D243" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="E243" t="n">
         <v>45.81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/_national.xlsx
+++ b/_national.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -621,6 +621,9 @@
   </si>
   <si>
     <t xml:space="preserve">EPI : First dose measles vaccine for children below 12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPI : Second dose measles vaccine for children below 12 months</t>
   </si>
   <si>
     <t xml:space="preserve">EPI : Full EPI coverage for children below 12 months (without rotavirus vaccine)</t>
@@ -4458,16 +4461,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.4</v>
+        <v>39.79</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3</v>
+        <v>30</v>
       </c>
       <c r="E199" t="n">
-        <v>0.5</v>
+        <v>49.59</v>
       </c>
     </row>
     <row r="200">
@@ -4475,16 +4478,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1210.8</v>
+        <v>12.11</v>
       </c>
       <c r="D200" t="n">
-        <v>1145.34</v>
+        <v>11.45</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="201">
@@ -4543,16 +4546,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>0.04</v>
+        <v>3.9</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="E204" t="n">
-        <v>0.08</v>
+        <v>8.36</v>
       </c>
     </row>
     <row r="205">
@@ -4560,16 +4563,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1069.63</v>
+        <v>10.7</v>
       </c>
       <c r="D205" t="n">
-        <v>984.69</v>
+        <v>9.85</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="206">
@@ -4696,16 +4699,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.84</v>
+        <v>84.22</v>
       </c>
       <c r="D213" t="n">
-        <v>0.58</v>
+        <v>57.66</v>
       </c>
       <c r="E213" t="n">
-        <v>1.11</v>
+        <v>99.99</v>
       </c>
     </row>
     <row r="214">
@@ -4713,16 +4716,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>26874.17</v>
+        <v>268.74</v>
       </c>
       <c r="D214" t="n">
-        <v>26064.02</v>
+        <v>260.64</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>276.84</v>
       </c>
     </row>
     <row r="215">
@@ -4730,16 +4733,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.17</v>
+        <v>17.43</v>
       </c>
       <c r="D215" t="n">
-        <v>0.1</v>
+        <v>10.17</v>
       </c>
       <c r="E215" t="n">
-        <v>0.25</v>
+        <v>24.69</v>
       </c>
     </row>
     <row r="216">
@@ -4747,16 +4750,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>241.19</v>
+        <v>2.41</v>
       </c>
       <c r="D216" t="n">
-        <v>215.18</v>
+        <v>2.15</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="217">
@@ -5118,7 +5121,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -5216,6 +5219,23 @@
       </c>
       <c r="E243" t="n">
         <v>45.81</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="D244" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E244" t="n">
+        <v>21.75</v>
       </c>
     </row>
   </sheetData>
